--- a/shifts.xlsx
+++ b/shifts.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="15">
   <si>
     <t>n</t>
   </si>
@@ -1570,10 +1570,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R79"/>
+  <dimension ref="A1:X79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:X31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1842,7 +1842,7 @@
       <c r="Q16" s="24"/>
       <c r="R16" s="24"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>17</v>
       </c>
@@ -1882,7 +1882,7 @@
       <c r="Q17" s="24"/>
       <c r="R17" s="24"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>18</v>
       </c>
@@ -1920,7 +1920,7 @@
       <c r="Q18" s="24"/>
       <c r="R18" s="24"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>19</v>
       </c>
@@ -1966,7 +1966,7 @@
       <c r="Q19" s="24"/>
       <c r="R19" s="24"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <v>20</v>
       </c>
@@ -2022,95 +2022,425 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>21</v>
       </c>
-      <c r="B21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
         <v>22</v>
       </c>
-      <c r="B22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>4</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22">
+        <v>4</v>
+      </c>
+      <c r="H22">
+        <v>3</v>
+      </c>
+      <c r="I22" t="s">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>3</v>
+      </c>
+      <c r="K22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <v>23</v>
       </c>
-      <c r="B23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="H23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="H24">
+        <v>3</v>
+      </c>
+      <c r="I24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <v>3</v>
+      </c>
+      <c r="I25">
+        <v>2</v>
+      </c>
+      <c r="J25">
+        <v>3</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>3</v>
+      </c>
+      <c r="M25">
+        <v>2</v>
+      </c>
+      <c r="N25" t="s">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>2</v>
+      </c>
+      <c r="P25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
         <v>26</v>
       </c>
-      <c r="B26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <v>4</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>4</v>
+      </c>
+      <c r="G26">
+        <v>3</v>
+      </c>
+      <c r="H26">
+        <v>4</v>
+      </c>
+      <c r="I26">
+        <v>3</v>
+      </c>
+      <c r="J26">
+        <v>4</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>4</v>
+      </c>
+      <c r="M26">
+        <v>3</v>
+      </c>
+      <c r="N26">
+        <v>4</v>
+      </c>
+      <c r="O26">
+        <v>3</v>
+      </c>
+      <c r="P26">
+        <v>4</v>
+      </c>
+      <c r="Q26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
         <v>27</v>
       </c>
-      <c r="B27" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>4</v>
+      </c>
+      <c r="G27">
+        <v>3</v>
+      </c>
+      <c r="H27">
+        <v>4</v>
+      </c>
+      <c r="I27">
+        <v>3</v>
+      </c>
+      <c r="J27">
+        <v>4</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
         <v>28</v>
       </c>
-      <c r="B28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>4</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>4</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+      <c r="G28">
+        <v>4</v>
+      </c>
+      <c r="H28">
+        <v>3</v>
+      </c>
+      <c r="I28">
+        <v>4</v>
+      </c>
+      <c r="J28">
+        <v>3</v>
+      </c>
+      <c r="K28">
+        <v>4</v>
+      </c>
+      <c r="L28">
+        <v>3</v>
+      </c>
+      <c r="M28" t="s">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>2</v>
+      </c>
+      <c r="O28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>4</v>
+      </c>
+      <c r="G29">
+        <v>5</v>
+      </c>
+      <c r="H29" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
         <v>30</v>
       </c>
-      <c r="B30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30" t="s">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>2</v>
+      </c>
+      <c r="I30">
+        <v>3</v>
+      </c>
+      <c r="J30">
+        <v>2</v>
+      </c>
+      <c r="K30" t="s">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>2</v>
+      </c>
+      <c r="M30" t="s">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>3</v>
+      </c>
+      <c r="O30">
+        <v>4</v>
+      </c>
+      <c r="P30">
+        <v>3</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>2</v>
+      </c>
+      <c r="S30">
+        <v>3</v>
+      </c>
+      <c r="T30">
+        <v>4</v>
+      </c>
+      <c r="U30">
+        <v>3</v>
+      </c>
+      <c r="V30">
+        <v>2</v>
+      </c>
+      <c r="W30">
+        <v>3</v>
+      </c>
+      <c r="X30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
         <v>31</v>
       </c>
-      <c r="B31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B31" s="1">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>4</v>
+      </c>
+      <c r="F31" t="s">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>2</v>
+      </c>
+      <c r="I31">
+        <v>3</v>
+      </c>
+      <c r="J31">
+        <v>4</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
         <v>32</v>
       </c>

--- a/shifts.xlsx
+++ b/shifts.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20220" windowHeight="7050" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="16">
   <si>
     <t>n</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>End</t>
+  </si>
+  <si>
+    <t>corrupted</t>
   </si>
 </sst>
 </file>
@@ -173,7 +176,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -205,11 +208,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -226,6 +240,9 @@
       <alignment textRotation="45"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="45"/>
     </xf>
@@ -256,7 +273,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -544,7 +560,7 @@
   <dimension ref="A1:AE12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -962,10 +978,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:R20"/>
+  <dimension ref="A2:S20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="D10" workbookViewId="0">
+      <selection activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -977,23 +993,23 @@
       <c r="A2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
     </row>
     <row r="3" spans="1:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="24" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="3"/>
@@ -1014,7 +1030,7 @@
       <c r="Q3" s="3"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="21"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="2">
         <v>3</v>
       </c>
@@ -1056,7 +1072,7 @@
       <c r="R4" s="2"/>
     </row>
     <row r="5" spans="1:18" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="23" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="4"/>
@@ -1078,7 +1094,7 @@
       <c r="R5" s="2"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="2">
         <v>5</v>
       </c>
@@ -1122,7 +1138,7 @@
       <c r="R6" s="2"/>
     </row>
     <row r="7" spans="1:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="22" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="5"/>
@@ -1144,7 +1160,7 @@
       <c r="R7" s="2"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="2">
         <v>1</v>
       </c>
@@ -1178,7 +1194,7 @@
       <c r="R8" s="2"/>
     </row>
     <row r="9" spans="1:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="25" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="7"/>
@@ -1200,7 +1216,7 @@
       <c r="R9" s="2"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="2">
         <v>3</v>
       </c>
@@ -1234,7 +1250,7 @@
       <c r="R10" s="2"/>
     </row>
     <row r="11" spans="1:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="26" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
@@ -1256,7 +1272,7 @@
       <c r="R11" s="2"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="2">
         <v>2</v>
       </c>
@@ -1291,7 +1307,7 @@
       <c r="R12" s="2"/>
     </row>
     <row r="13" spans="1:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="17" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="6"/>
@@ -1313,7 +1329,7 @@
       <c r="R13" s="6"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="2">
         <v>5</v>
       </c>
@@ -1351,7 +1367,7 @@
       <c r="R14" s="2"/>
     </row>
     <row r="15" spans="1:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="18" t="s">
         <v>8</v>
       </c>
       <c r="B15" s="10"/>
@@ -1373,7 +1389,7 @@
       <c r="R15" s="2"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
+      <c r="A16" s="18"/>
       <c r="B16" s="2">
         <v>4</v>
       </c>
@@ -1408,8 +1424,8 @@
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
     </row>
-    <row r="17" spans="1:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
+    <row r="17" spans="1:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="9"/>
@@ -1430,8 +1446,8 @@
       <c r="Q17" s="9"/>
       <c r="R17" s="2"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="19"/>
       <c r="B18" s="2">
         <v>3</v>
       </c>
@@ -1474,8 +1490,8 @@
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
     </row>
-    <row r="19" spans="1:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
+    <row r="19" spans="1:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="20" t="s">
         <v>10</v>
       </c>
       <c r="B19" s="11"/>
@@ -1496,8 +1512,8 @@
       <c r="Q19" s="11"/>
       <c r="R19" s="11"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="20"/>
       <c r="B20" s="2">
         <v>3</v>
       </c>
@@ -1548,6 +1564,9 @@
       </c>
       <c r="R20" s="2">
         <v>3</v>
+      </c>
+      <c r="S20" s="15">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1570,70 +1589,110 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X79"/>
+  <dimension ref="A1:Y79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:X31"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.85546875" style="13" customWidth="1"/>
-    <col min="2" max="3" width="2" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" customWidth="1"/>
+    <col min="3" max="3" width="2" customWidth="1"/>
     <col min="4" max="7" width="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="13">
+        <v>1</v>
+      </c>
       <c r="B1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="13">
+        <v>2</v>
+      </c>
       <c r="B2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="13">
+        <v>3</v>
+      </c>
       <c r="B3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
+        <v>4</v>
+      </c>
       <c r="B4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
+        <v>5</v>
+      </c>
       <c r="B5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
+        <v>6</v>
+      </c>
       <c r="B6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>13</v>
+      <c r="A7" s="13">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>13</v>
+      <c r="A8" s="13">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
+        <v>9</v>
+      </c>
       <c r="B9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
+        <v>10</v>
+      </c>
       <c r="B10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
+        <v>11</v>
+      </c>
       <c r="B11" t="s">
         <v>13</v>
       </c>
@@ -1642,439 +1701,415 @@
       <c r="A12" s="13">
         <v>12</v>
       </c>
-      <c r="B12" s="24">
-        <v>3</v>
-      </c>
-      <c r="C12" s="24">
-        <v>2</v>
-      </c>
-      <c r="D12" s="24">
-        <v>3</v>
-      </c>
-      <c r="E12" s="24">
-        <v>4</v>
-      </c>
-      <c r="F12" s="24">
-        <v>3</v>
-      </c>
-      <c r="G12" s="24">
-        <v>4</v>
-      </c>
-      <c r="H12" s="24">
-        <v>3</v>
-      </c>
-      <c r="I12" s="24">
-        <v>4</v>
-      </c>
-      <c r="J12" s="24">
-        <v>3</v>
-      </c>
-      <c r="K12" s="24">
-        <v>4</v>
-      </c>
-      <c r="L12" s="24">
-        <v>5</v>
-      </c>
-      <c r="M12" s="24" t="s">
+      <c r="B12" s="14">
+        <v>3</v>
+      </c>
+      <c r="C12" s="14">
+        <v>2</v>
+      </c>
+      <c r="D12" s="14">
+        <v>3</v>
+      </c>
+      <c r="E12" s="14">
+        <v>4</v>
+      </c>
+      <c r="F12" s="14">
+        <v>3</v>
+      </c>
+      <c r="G12" s="14">
+        <v>4</v>
+      </c>
+      <c r="H12" s="14">
+        <v>3</v>
+      </c>
+      <c r="I12" s="14">
+        <v>4</v>
+      </c>
+      <c r="J12" s="14">
+        <v>3</v>
+      </c>
+      <c r="K12" s="14">
+        <v>4</v>
+      </c>
+      <c r="L12" s="14">
+        <v>5</v>
+      </c>
+      <c r="M12" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="24"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>13</v>
       </c>
-      <c r="B13" s="24">
-        <v>5</v>
-      </c>
-      <c r="C13" s="24">
-        <v>4</v>
-      </c>
-      <c r="D13" s="24">
-        <v>3</v>
-      </c>
-      <c r="E13" s="24">
-        <v>2</v>
-      </c>
-      <c r="F13" s="24">
+      <c r="B13" s="14">
+        <v>5</v>
+      </c>
+      <c r="C13" s="14">
+        <v>4</v>
+      </c>
+      <c r="D13" s="14">
+        <v>3</v>
+      </c>
+      <c r="E13" s="14">
+        <v>2</v>
+      </c>
+      <c r="F13" s="14">
         <v>1</v>
       </c>
-      <c r="G13" s="24">
-        <v>2</v>
-      </c>
-      <c r="H13" s="24">
-        <v>3</v>
-      </c>
-      <c r="I13" s="24">
-        <v>4</v>
-      </c>
-      <c r="J13" s="24">
-        <v>5</v>
-      </c>
-      <c r="K13" s="24">
-        <v>3</v>
-      </c>
-      <c r="L13" s="24">
-        <v>2</v>
-      </c>
-      <c r="M13" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24"/>
+      <c r="G13" s="14">
+        <v>2</v>
+      </c>
+      <c r="H13" s="14">
+        <v>3</v>
+      </c>
+      <c r="I13" s="14">
+        <v>4</v>
+      </c>
+      <c r="J13" s="14">
+        <v>5</v>
+      </c>
+      <c r="K13" s="14">
+        <v>3</v>
+      </c>
+      <c r="L13" s="14">
+        <v>2</v>
+      </c>
+      <c r="M13" s="14">
+        <v>-1</v>
+      </c>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <v>14</v>
       </c>
-      <c r="B14" s="24">
+      <c r="B14" s="14">
         <v>1</v>
       </c>
-      <c r="C14" s="24">
-        <v>2</v>
-      </c>
-      <c r="D14" s="24">
-        <v>3</v>
-      </c>
-      <c r="E14" s="24">
-        <v>4</v>
-      </c>
-      <c r="F14" s="24">
-        <v>3</v>
-      </c>
-      <c r="G14" s="24">
-        <v>2</v>
-      </c>
-      <c r="H14" s="24">
-        <v>3</v>
-      </c>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="24"/>
+      <c r="C14" s="14">
+        <v>2</v>
+      </c>
+      <c r="D14" s="14">
+        <v>3</v>
+      </c>
+      <c r="E14" s="14">
+        <v>4</v>
+      </c>
+      <c r="F14" s="14">
+        <v>3</v>
+      </c>
+      <c r="G14" s="14">
+        <v>2</v>
+      </c>
+      <c r="H14" s="14">
+        <v>3</v>
+      </c>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>15</v>
       </c>
-      <c r="B15" s="24">
-        <v>3</v>
-      </c>
-      <c r="C15" s="24">
-        <v>4</v>
-      </c>
-      <c r="D15" s="24">
-        <v>3</v>
-      </c>
-      <c r="E15" s="24">
-        <v>2</v>
-      </c>
-      <c r="F15" s="24">
-        <v>3</v>
-      </c>
-      <c r="G15" s="24">
-        <v>2</v>
-      </c>
-      <c r="H15" s="24">
-        <v>3</v>
-      </c>
-      <c r="I15" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="24"/>
+      <c r="B15" s="14">
+        <v>3</v>
+      </c>
+      <c r="C15" s="14">
+        <v>4</v>
+      </c>
+      <c r="D15" s="14">
+        <v>3</v>
+      </c>
+      <c r="E15" s="14">
+        <v>2</v>
+      </c>
+      <c r="F15" s="14">
+        <v>3</v>
+      </c>
+      <c r="G15" s="14">
+        <v>2</v>
+      </c>
+      <c r="H15" s="14">
+        <v>3</v>
+      </c>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>16</v>
       </c>
-      <c r="B16" s="24">
-        <v>2</v>
-      </c>
-      <c r="C16" s="24">
-        <v>3</v>
-      </c>
-      <c r="D16" s="24">
-        <v>4</v>
-      </c>
-      <c r="E16" s="24">
-        <v>3</v>
-      </c>
-      <c r="F16" s="24">
-        <v>4</v>
-      </c>
-      <c r="G16" s="24">
-        <v>3</v>
-      </c>
-      <c r="H16" s="24">
-        <v>4</v>
-      </c>
-      <c r="I16" s="24">
-        <v>5</v>
-      </c>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="24"/>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B16" s="14">
+        <v>2</v>
+      </c>
+      <c r="C16" s="14">
+        <v>3</v>
+      </c>
+      <c r="D16" s="14">
+        <v>4</v>
+      </c>
+      <c r="E16" s="14">
+        <v>3</v>
+      </c>
+      <c r="F16" s="14">
+        <v>4</v>
+      </c>
+      <c r="G16" s="14">
+        <v>3</v>
+      </c>
+      <c r="H16" s="14">
+        <v>4</v>
+      </c>
+      <c r="I16" s="14">
+        <v>5</v>
+      </c>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>17</v>
       </c>
-      <c r="B17" s="24">
-        <v>5</v>
-      </c>
-      <c r="C17" s="24">
-        <v>4</v>
-      </c>
-      <c r="D17" s="24">
-        <v>3</v>
-      </c>
-      <c r="E17" s="24">
-        <v>2</v>
-      </c>
-      <c r="F17" s="24">
-        <v>3</v>
-      </c>
-      <c r="G17" s="24">
-        <v>4</v>
-      </c>
-      <c r="H17" s="24">
-        <v>3</v>
-      </c>
-      <c r="I17" s="24">
-        <v>4</v>
-      </c>
-      <c r="J17" s="24">
-        <v>3</v>
-      </c>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="24"/>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B17" s="14">
+        <v>5</v>
+      </c>
+      <c r="C17" s="14">
+        <v>4</v>
+      </c>
+      <c r="D17" s="14">
+        <v>3</v>
+      </c>
+      <c r="E17" s="14">
+        <v>2</v>
+      </c>
+      <c r="F17" s="14">
+        <v>3</v>
+      </c>
+      <c r="G17" s="14">
+        <v>4</v>
+      </c>
+      <c r="H17" s="14">
+        <v>3</v>
+      </c>
+      <c r="I17" s="14">
+        <v>4</v>
+      </c>
+      <c r="J17" s="14">
+        <v>3</v>
+      </c>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>18</v>
       </c>
-      <c r="B18" s="24">
-        <v>4</v>
-      </c>
-      <c r="C18" s="24">
-        <v>3</v>
-      </c>
-      <c r="D18" s="24">
-        <v>4</v>
-      </c>
-      <c r="E18" s="24">
-        <v>3</v>
-      </c>
-      <c r="F18" s="24">
-        <v>2</v>
-      </c>
-      <c r="G18" s="24">
-        <v>3</v>
-      </c>
-      <c r="H18" s="24">
-        <v>4</v>
-      </c>
-      <c r="I18" s="24">
-        <v>3</v>
-      </c>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="24"/>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B18" s="14">
+        <v>4</v>
+      </c>
+      <c r="C18" s="14">
+        <v>3</v>
+      </c>
+      <c r="D18" s="14">
+        <v>4</v>
+      </c>
+      <c r="E18" s="14">
+        <v>3</v>
+      </c>
+      <c r="F18" s="14">
+        <v>2</v>
+      </c>
+      <c r="G18" s="14">
+        <v>3</v>
+      </c>
+      <c r="H18" s="14">
+        <v>4</v>
+      </c>
+      <c r="I18" s="14">
+        <v>3</v>
+      </c>
+      <c r="J18" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>19</v>
       </c>
-      <c r="B19" s="24">
-        <v>3</v>
-      </c>
-      <c r="C19" s="24">
-        <v>2</v>
-      </c>
-      <c r="D19" s="24">
-        <v>3</v>
-      </c>
-      <c r="E19" s="24">
-        <v>4</v>
-      </c>
-      <c r="F19" s="24">
-        <v>5</v>
-      </c>
-      <c r="G19" s="24">
-        <v>4</v>
-      </c>
-      <c r="H19" s="24">
-        <v>3</v>
-      </c>
-      <c r="I19" s="24">
-        <v>2</v>
-      </c>
-      <c r="J19" s="24">
-        <v>3</v>
-      </c>
-      <c r="K19" s="24">
-        <v>4</v>
-      </c>
-      <c r="L19" s="24">
-        <v>3</v>
-      </c>
-      <c r="M19" s="24">
-        <v>4</v>
-      </c>
-      <c r="N19" s="24"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="24"/>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B19" s="14">
+        <v>3</v>
+      </c>
+      <c r="C19" s="14">
+        <v>2</v>
+      </c>
+      <c r="D19" s="14">
+        <v>3</v>
+      </c>
+      <c r="E19" s="14">
+        <v>4</v>
+      </c>
+      <c r="F19" s="14">
+        <v>5</v>
+      </c>
+      <c r="G19" s="14">
+        <v>4</v>
+      </c>
+      <c r="H19" s="14">
+        <v>3</v>
+      </c>
+      <c r="I19" s="14">
+        <v>2</v>
+      </c>
+      <c r="J19" s="14">
+        <v>3</v>
+      </c>
+      <c r="K19" s="14">
+        <v>4</v>
+      </c>
+      <c r="L19" s="14">
+        <v>3</v>
+      </c>
+      <c r="M19" s="14">
+        <v>4</v>
+      </c>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <v>20</v>
       </c>
-      <c r="B20" s="24">
-        <v>3</v>
-      </c>
-      <c r="C20" s="24">
-        <v>2</v>
-      </c>
-      <c r="D20" s="24">
-        <v>3</v>
-      </c>
-      <c r="E20" s="24">
-        <v>2</v>
-      </c>
-      <c r="F20" s="24">
-        <v>3</v>
-      </c>
-      <c r="G20" s="24">
-        <v>2</v>
-      </c>
-      <c r="H20" s="24">
-        <v>3</v>
-      </c>
-      <c r="I20" s="24">
-        <v>4</v>
-      </c>
-      <c r="J20" s="24">
-        <v>3</v>
-      </c>
-      <c r="K20" s="24">
-        <v>4</v>
-      </c>
-      <c r="L20" s="24">
-        <v>3</v>
-      </c>
-      <c r="M20" s="24">
-        <v>2</v>
-      </c>
-      <c r="N20" s="24">
-        <v>3</v>
-      </c>
-      <c r="O20" s="24">
-        <v>4</v>
-      </c>
-      <c r="P20" s="24">
-        <v>3</v>
-      </c>
-      <c r="Q20" s="24">
-        <v>2</v>
-      </c>
-      <c r="R20" s="24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B20" s="14">
+        <v>3</v>
+      </c>
+      <c r="C20" s="14">
+        <v>2</v>
+      </c>
+      <c r="D20" s="14">
+        <v>3</v>
+      </c>
+      <c r="E20" s="14">
+        <v>2</v>
+      </c>
+      <c r="F20" s="14">
+        <v>3</v>
+      </c>
+      <c r="G20" s="14">
+        <v>2</v>
+      </c>
+      <c r="H20" s="14">
+        <v>3</v>
+      </c>
+      <c r="I20" s="14">
+        <v>4</v>
+      </c>
+      <c r="J20" s="14">
+        <v>3</v>
+      </c>
+      <c r="K20" s="14">
+        <v>4</v>
+      </c>
+      <c r="L20" s="14">
+        <v>3</v>
+      </c>
+      <c r="M20" s="14">
+        <v>2</v>
+      </c>
+      <c r="N20" s="14">
+        <v>3</v>
+      </c>
+      <c r="O20" s="14">
+        <v>4</v>
+      </c>
+      <c r="P20" s="14">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="14">
+        <v>2</v>
+      </c>
+      <c r="R20" s="14">
+        <v>3</v>
+      </c>
+      <c r="S20" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>21</v>
       </c>
-      <c r="B21">
-        <v>5</v>
-      </c>
-      <c r="C21">
-        <v>3</v>
-      </c>
-      <c r="D21">
-        <v>4</v>
-      </c>
-      <c r="E21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
         <v>22</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E22">
-        <v>4</v>
-      </c>
-      <c r="F22">
-        <v>3</v>
-      </c>
-      <c r="G22">
-        <v>4</v>
-      </c>
-      <c r="H22">
-        <v>3</v>
-      </c>
-      <c r="I22" t="s">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>3</v>
-      </c>
-      <c r="K22">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <v>23</v>
       </c>
@@ -2082,39 +2117,54 @@
         <v>3</v>
       </c>
       <c r="C23">
-        <v>2</v>
-      </c>
-      <c r="D23" t="s">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F23">
         <v>3</v>
       </c>
       <c r="G23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H23">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="I23">
+        <v>-1</v>
+      </c>
+      <c r="J23">
+        <v>3</v>
+      </c>
+      <c r="K23">
+        <v>4</v>
+      </c>
+      <c r="L23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <v>24</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C24">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>-1</v>
       </c>
       <c r="E24">
         <v>2</v>
       </c>
-      <c r="F24" t="s">
-        <v>0</v>
+      <c r="F24">
+        <v>3</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -2122,11 +2172,8 @@
       <c r="H24">
         <v>3</v>
       </c>
-      <c r="I24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <v>25</v>
       </c>
@@ -2139,99 +2186,75 @@
       <c r="D25">
         <v>2</v>
       </c>
+      <c r="E25">
+        <v>-1</v>
+      </c>
       <c r="F25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H25">
-        <v>3</v>
-      </c>
-      <c r="I25">
-        <v>2</v>
-      </c>
-      <c r="J25">
-        <v>3</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>3</v>
-      </c>
-      <c r="M25">
-        <v>2</v>
-      </c>
-      <c r="N25" t="s">
-        <v>0</v>
-      </c>
-      <c r="O25">
-        <v>2</v>
-      </c>
-      <c r="P25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
         <v>26</v>
       </c>
       <c r="B26">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26">
-        <v>4</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N26">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="O26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P26">
-        <v>4</v>
-      </c>
-      <c r="Q26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
         <v>27</v>
       </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
       <c r="C27">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27">
         <v>4</v>
@@ -2257,11 +2280,32 @@
       <c r="K27">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L27">
+        <v>4</v>
+      </c>
+      <c r="M27">
+        <v>3</v>
+      </c>
+      <c r="N27">
+        <v>4</v>
+      </c>
+      <c r="O27">
+        <v>3</v>
+      </c>
+      <c r="P27">
+        <v>4</v>
+      </c>
+      <c r="Q27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
         <v>28</v>
       </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
       <c r="C28">
         <v>4</v>
       </c>
@@ -2289,31 +2333,19 @@
       <c r="K28">
         <v>4</v>
       </c>
-      <c r="L28">
-        <v>3</v>
-      </c>
-      <c r="M28" t="s">
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <v>2</v>
-      </c>
-      <c r="O28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
         <v>29</v>
       </c>
-      <c r="B29" t="s">
-        <v>0</v>
+      <c r="B29">
+        <v>4</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -2322,92 +2354,65 @@
         <v>4</v>
       </c>
       <c r="G29">
-        <v>5</v>
-      </c>
-      <c r="H29" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="H29">
+        <v>4</v>
+      </c>
+      <c r="I29">
+        <v>3</v>
+      </c>
+      <c r="J29">
+        <v>4</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>-1</v>
+      </c>
+      <c r="M29">
+        <v>2</v>
+      </c>
+      <c r="N29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
         <v>30</v>
       </c>
       <c r="B30">
+        <v>-1</v>
+      </c>
+      <c r="C30">
         <v>1</v>
       </c>
-      <c r="C30">
-        <v>2</v>
-      </c>
       <c r="D30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E30">
-        <v>2</v>
-      </c>
-      <c r="F30" t="s">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>4</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H30">
-        <v>2</v>
-      </c>
-      <c r="I30">
-        <v>3</v>
-      </c>
-      <c r="J30">
-        <v>2</v>
-      </c>
-      <c r="K30" t="s">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>2</v>
-      </c>
-      <c r="M30" t="s">
-        <v>1</v>
-      </c>
-      <c r="N30">
-        <v>3</v>
-      </c>
-      <c r="O30">
-        <v>4</v>
-      </c>
-      <c r="P30">
-        <v>3</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>0</v>
-      </c>
-      <c r="R30">
-        <v>2</v>
-      </c>
-      <c r="S30">
-        <v>3</v>
-      </c>
-      <c r="T30">
-        <v>4</v>
-      </c>
-      <c r="U30">
-        <v>3</v>
-      </c>
-      <c r="V30">
-        <v>2</v>
-      </c>
-      <c r="W30">
-        <v>3</v>
-      </c>
-      <c r="X30">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+        <v>-1</v>
+      </c>
+      <c r="I30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
         <v>31</v>
       </c>
-      <c r="B31" s="1">
-        <v>4</v>
+      <c r="B31">
+        <v>1</v>
       </c>
       <c r="C31">
         <v>2</v>
@@ -2416,10 +2421,10 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>4</v>
-      </c>
-      <c r="F31" t="s">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>-1</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -2431,21 +2436,93 @@
         <v>3</v>
       </c>
       <c r="J31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+        <v>-1</v>
+      </c>
+      <c r="L31">
+        <v>2</v>
+      </c>
+      <c r="M31" t="s">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>3</v>
+      </c>
+      <c r="O31">
+        <v>4</v>
+      </c>
+      <c r="P31">
+        <v>3</v>
+      </c>
+      <c r="Q31">
+        <v>-1</v>
+      </c>
+      <c r="R31">
+        <v>2</v>
+      </c>
+      <c r="S31">
+        <v>3</v>
+      </c>
+      <c r="T31">
+        <v>4</v>
+      </c>
+      <c r="U31">
+        <v>3</v>
+      </c>
+      <c r="V31">
+        <v>2</v>
+      </c>
+      <c r="W31">
+        <v>3</v>
+      </c>
+      <c r="X31">
+        <v>4</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
         <v>32</v>
       </c>
-      <c r="B32" t="s">
-        <v>13</v>
+      <c r="B32" s="1">
+        <v>4</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32">
+        <v>4</v>
+      </c>
+      <c r="F32">
+        <v>-1</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>2</v>
+      </c>
+      <c r="I32">
+        <v>3</v>
+      </c>
+      <c r="J32">
+        <v>4</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>-1</v>
+      </c>
+      <c r="M32" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -2499,9 +2576,6 @@
       <c r="C37">
         <v>3</v>
       </c>
-      <c r="D37" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="13">
@@ -2568,7 +2642,7 @@
         <v>2</v>
       </c>
       <c r="G41" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -2689,9 +2763,6 @@
       <c r="F48">
         <v>3</v>
       </c>
-      <c r="G48" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="13">
@@ -2723,9 +2794,6 @@
       <c r="C50">
         <v>5</v>
       </c>
-      <c r="D50" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="13">
@@ -2770,6 +2838,9 @@
       <c r="C54">
         <v>3</v>
       </c>
+      <c r="D54" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="13">
@@ -2807,7 +2878,7 @@
         <v>4</v>
       </c>
       <c r="D57" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -2983,6 +3054,9 @@
       <c r="C69">
         <v>2</v>
       </c>
+      <c r="D69" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="13">
@@ -3010,9 +3084,6 @@
       </c>
       <c r="D71">
         <v>5</v>
-      </c>
-      <c r="E71" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">

--- a/shifts.xlsx
+++ b/shifts.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="shiftsForMatlab" sheetId="3" r:id="rId3"/>
+    <sheet name="Tabelle3" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="shiftsWDennis_1" localSheetId="2">shiftsForMatlab!$A$35:$G$79</definedName>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="24">
   <si>
     <t>n</t>
   </si>
@@ -93,12 +94,36 @@
   <si>
     <t>corrupted</t>
   </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Gears</t>
+  </si>
+  <si>
+    <t>Standing</t>
+  </si>
+  <si>
+    <t>Good Conditions</t>
+  </si>
+  <si>
+    <t>Bad conditions</t>
+  </si>
+  <si>
+    <t>Stand</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,6 +137,24 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Lucida Bright"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="11">
@@ -176,7 +219,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -219,11 +262,92 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -243,6 +367,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="45"/>
     </xf>
@@ -272,6 +435,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -560,7 +738,7 @@
   <dimension ref="A1:AE12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -980,7 +1158,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S20"/>
   <sheetViews>
-    <sheetView topLeftCell="D10" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
@@ -993,23 +1171,23 @@
       <c r="A2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
     </row>
     <row r="3" spans="1:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="37" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="3"/>
@@ -1030,7 +1208,7 @@
       <c r="Q3" s="3"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
+      <c r="A4" s="37"/>
       <c r="B4" s="2">
         <v>3</v>
       </c>
@@ -1072,7 +1250,7 @@
       <c r="R4" s="2"/>
     </row>
     <row r="5" spans="1:18" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="36" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="4"/>
@@ -1094,7 +1272,7 @@
       <c r="R5" s="2"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="2">
         <v>5</v>
       </c>
@@ -1138,7 +1316,7 @@
       <c r="R6" s="2"/>
     </row>
     <row r="7" spans="1:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="35" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="5"/>
@@ -1160,7 +1338,7 @@
       <c r="R7" s="2"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
+      <c r="A8" s="35"/>
       <c r="B8" s="2">
         <v>1</v>
       </c>
@@ -1194,7 +1372,7 @@
       <c r="R8" s="2"/>
     </row>
     <row r="9" spans="1:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="38" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="7"/>
@@ -1216,7 +1394,7 @@
       <c r="R9" s="2"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
+      <c r="A10" s="38"/>
       <c r="B10" s="2">
         <v>3</v>
       </c>
@@ -1250,7 +1428,7 @@
       <c r="R10" s="2"/>
     </row>
     <row r="11" spans="1:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="39" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
@@ -1272,7 +1450,7 @@
       <c r="R11" s="2"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="26"/>
+      <c r="A12" s="39"/>
       <c r="B12" s="2">
         <v>2</v>
       </c>
@@ -1307,7 +1485,7 @@
       <c r="R12" s="2"/>
     </row>
     <row r="13" spans="1:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="30" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="6"/>
@@ -1329,7 +1507,7 @@
       <c r="R13" s="6"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
+      <c r="A14" s="30"/>
       <c r="B14" s="2">
         <v>5</v>
       </c>
@@ -1367,7 +1545,7 @@
       <c r="R14" s="2"/>
     </row>
     <row r="15" spans="1:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="31" t="s">
         <v>8</v>
       </c>
       <c r="B15" s="10"/>
@@ -1389,7 +1567,7 @@
       <c r="R15" s="2"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
+      <c r="A16" s="31"/>
       <c r="B16" s="2">
         <v>4</v>
       </c>
@@ -1425,7 +1603,7 @@
       <c r="R16" s="2"/>
     </row>
     <row r="17" spans="1:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="32" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="9"/>
@@ -1447,7 +1625,7 @@
       <c r="R17" s="2"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
+      <c r="A18" s="32"/>
       <c r="B18" s="2">
         <v>3</v>
       </c>
@@ -1491,7 +1669,7 @@
       <c r="R18" s="2"/>
     </row>
     <row r="19" spans="1:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="33" t="s">
         <v>10</v>
       </c>
       <c r="B19" s="11"/>
@@ -1513,7 +1691,7 @@
       <c r="R19" s="11"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="2">
         <v>3</v>
       </c>
@@ -1591,8 +1769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="F67" sqref="F67"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2525,7 +2703,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
         <v>33</v>
       </c>
@@ -2533,15 +2711,33 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="13">
         <v>34</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34">
+        <v>-1</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>4</v>
+      </c>
+      <c r="G34">
+        <v>5</v>
+      </c>
+      <c r="H34" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
         <v>35</v>
       </c>
@@ -2552,7 +2748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="13">
         <v>36</v>
       </c>
@@ -2566,7 +2762,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="13">
         <v>37</v>
       </c>
@@ -2577,7 +2773,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="13">
         <v>38</v>
       </c>
@@ -2597,7 +2793,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="13">
         <v>39</v>
       </c>
@@ -2608,7 +2804,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="13">
         <v>40</v>
       </c>
@@ -2622,7 +2818,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="13">
         <v>41</v>
       </c>
@@ -2645,7 +2841,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="13">
         <v>42</v>
       </c>
@@ -2656,7 +2852,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="13">
         <v>43</v>
       </c>
@@ -2673,7 +2869,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="13">
         <v>44</v>
       </c>
@@ -2696,7 +2892,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="13">
         <v>45</v>
       </c>
@@ -2710,7 +2906,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="13">
         <v>46</v>
       </c>
@@ -2730,7 +2926,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="13">
         <v>47</v>
       </c>
@@ -2744,7 +2940,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="13">
         <v>48</v>
       </c>
@@ -2764,7 +2960,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="13">
         <v>49</v>
       </c>
@@ -2784,7 +2980,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="13">
         <v>50</v>
       </c>
@@ -2795,7 +2991,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="13">
         <v>51</v>
       </c>
@@ -2806,7 +3002,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="13">
         <v>52</v>
       </c>
@@ -2817,7 +3013,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="13">
         <v>53</v>
       </c>
@@ -2828,7 +3024,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="13">
         <v>54</v>
       </c>
@@ -2841,8 +3037,11 @@
       <c r="D54" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L54" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="13">
         <v>55</v>
       </c>
@@ -2853,7 +3052,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="13">
         <v>56</v>
       </c>
@@ -2867,7 +3066,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="13">
         <v>57</v>
       </c>
@@ -2881,7 +3080,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="13">
         <v>58</v>
       </c>
@@ -2892,7 +3091,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="13">
         <v>59</v>
       </c>
@@ -2903,7 +3102,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="13">
         <v>60</v>
       </c>
@@ -2914,7 +3113,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="13">
         <v>61</v>
       </c>
@@ -2928,7 +3127,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="13">
         <v>62</v>
       </c>
@@ -2939,7 +3138,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="13">
         <v>63</v>
       </c>
@@ -2962,7 +3161,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="13">
         <v>64</v>
       </c>
@@ -3217,4 +3416,3134 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y80"/>
+  <sheetViews>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:Y80"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.7109375" style="17" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="2.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="15" width="2.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="2" style="17" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="19" max="24" width="2" style="17" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="2.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="11.42578125" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
+    </row>
+    <row r="2" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="22">
+        <v>1</v>
+      </c>
+      <c r="C2" s="23">
+        <v>1</v>
+      </c>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="28"/>
+      <c r="X2" s="28"/>
+      <c r="Y2" s="25"/>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A3" s="42"/>
+      <c r="B3" s="19">
+        <v>2</v>
+      </c>
+      <c r="C3" s="20">
+        <v>2</v>
+      </c>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="28"/>
+      <c r="U3" s="28"/>
+      <c r="V3" s="28"/>
+      <c r="W3" s="28"/>
+      <c r="X3" s="28"/>
+      <c r="Y3" s="25"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A4" s="42"/>
+      <c r="B4" s="19">
+        <v>3</v>
+      </c>
+      <c r="C4" s="20">
+        <v>3</v>
+      </c>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="28"/>
+      <c r="W4" s="28"/>
+      <c r="X4" s="28"/>
+      <c r="Y4" s="25"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A5" s="42"/>
+      <c r="B5" s="19">
+        <v>4</v>
+      </c>
+      <c r="C5" s="20">
+        <v>4</v>
+      </c>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="28"/>
+      <c r="U5" s="28"/>
+      <c r="V5" s="28"/>
+      <c r="W5" s="28"/>
+      <c r="X5" s="28"/>
+      <c r="Y5" s="25"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A6" s="42"/>
+      <c r="B6" s="19">
+        <v>5</v>
+      </c>
+      <c r="C6" s="20">
+        <v>5</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="28"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="28"/>
+      <c r="W6" s="28"/>
+      <c r="X6" s="28"/>
+      <c r="Y6" s="25"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A7" s="42"/>
+      <c r="B7" s="19">
+        <v>6</v>
+      </c>
+      <c r="C7" s="20">
+        <v>-2</v>
+      </c>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="28"/>
+      <c r="U7" s="28"/>
+      <c r="V7" s="28"/>
+      <c r="W7" s="28"/>
+      <c r="X7" s="28"/>
+      <c r="Y7" s="25"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A8" s="42"/>
+      <c r="B8" s="19">
+        <v>7</v>
+      </c>
+      <c r="C8" s="20">
+        <v>1</v>
+      </c>
+      <c r="D8" s="20">
+        <v>2</v>
+      </c>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="29"/>
+      <c r="T8" s="28"/>
+      <c r="U8" s="28"/>
+      <c r="V8" s="28"/>
+      <c r="W8" s="28"/>
+      <c r="X8" s="28"/>
+      <c r="Y8" s="25"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A9" s="42"/>
+      <c r="B9" s="19">
+        <v>8</v>
+      </c>
+      <c r="C9" s="20">
+        <v>2</v>
+      </c>
+      <c r="D9" s="20">
+        <v>3</v>
+      </c>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="28"/>
+      <c r="U9" s="28"/>
+      <c r="V9" s="28"/>
+      <c r="W9" s="28"/>
+      <c r="X9" s="28"/>
+      <c r="Y9" s="25"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A10" s="42"/>
+      <c r="B10" s="19">
+        <v>9</v>
+      </c>
+      <c r="C10" s="20">
+        <v>-1</v>
+      </c>
+      <c r="D10" s="20">
+        <v>1</v>
+      </c>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="28"/>
+      <c r="U10" s="28"/>
+      <c r="V10" s="28"/>
+      <c r="W10" s="28"/>
+      <c r="X10" s="28"/>
+      <c r="Y10" s="25"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A11" s="42"/>
+      <c r="B11" s="19">
+        <v>10</v>
+      </c>
+      <c r="C11" s="20">
+        <v>-1</v>
+      </c>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="29"/>
+      <c r="T11" s="28"/>
+      <c r="U11" s="28"/>
+      <c r="V11" s="28"/>
+      <c r="W11" s="28"/>
+      <c r="X11" s="28"/>
+      <c r="Y11" s="25"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A12" s="42"/>
+      <c r="B12" s="19">
+        <v>11</v>
+      </c>
+      <c r="C12" s="20">
+        <v>1</v>
+      </c>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="27"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="28"/>
+      <c r="U12" s="28"/>
+      <c r="V12" s="28"/>
+      <c r="W12" s="28"/>
+      <c r="X12" s="28"/>
+      <c r="Y12" s="25"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A13" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="19">
+        <v>12</v>
+      </c>
+      <c r="C13" s="20">
+        <v>3</v>
+      </c>
+      <c r="D13" s="20">
+        <v>2</v>
+      </c>
+      <c r="E13" s="20">
+        <v>3</v>
+      </c>
+      <c r="F13" s="20">
+        <v>4</v>
+      </c>
+      <c r="G13" s="20">
+        <v>3</v>
+      </c>
+      <c r="H13" s="20">
+        <v>4</v>
+      </c>
+      <c r="I13" s="20">
+        <v>3</v>
+      </c>
+      <c r="J13" s="20">
+        <v>4</v>
+      </c>
+      <c r="K13" s="20">
+        <v>3</v>
+      </c>
+      <c r="L13" s="20">
+        <v>4</v>
+      </c>
+      <c r="M13" s="20">
+        <v>5</v>
+      </c>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="28"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="28"/>
+      <c r="W13" s="28"/>
+      <c r="X13" s="28"/>
+      <c r="Y13" s="25"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A14" s="42"/>
+      <c r="B14" s="19">
+        <v>13</v>
+      </c>
+      <c r="C14" s="20">
+        <v>5</v>
+      </c>
+      <c r="D14" s="20">
+        <v>4</v>
+      </c>
+      <c r="E14" s="20">
+        <v>3</v>
+      </c>
+      <c r="F14" s="20">
+        <v>2</v>
+      </c>
+      <c r="G14" s="20">
+        <v>1</v>
+      </c>
+      <c r="H14" s="20">
+        <v>2</v>
+      </c>
+      <c r="I14" s="20">
+        <v>3</v>
+      </c>
+      <c r="J14" s="20">
+        <v>4</v>
+      </c>
+      <c r="K14" s="20">
+        <v>5</v>
+      </c>
+      <c r="L14" s="20">
+        <v>3</v>
+      </c>
+      <c r="M14" s="20">
+        <v>2</v>
+      </c>
+      <c r="N14" s="20">
+        <v>-1</v>
+      </c>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="29"/>
+      <c r="T14" s="28"/>
+      <c r="U14" s="28"/>
+      <c r="V14" s="28"/>
+      <c r="W14" s="28"/>
+      <c r="X14" s="28"/>
+      <c r="Y14" s="25"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A15" s="42"/>
+      <c r="B15" s="19">
+        <v>14</v>
+      </c>
+      <c r="C15" s="20">
+        <v>1</v>
+      </c>
+      <c r="D15" s="20">
+        <v>2</v>
+      </c>
+      <c r="E15" s="20">
+        <v>3</v>
+      </c>
+      <c r="F15" s="20">
+        <v>4</v>
+      </c>
+      <c r="G15" s="20">
+        <v>3</v>
+      </c>
+      <c r="H15" s="20">
+        <v>2</v>
+      </c>
+      <c r="I15" s="20">
+        <v>3</v>
+      </c>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="28"/>
+      <c r="U15" s="28"/>
+      <c r="V15" s="28"/>
+      <c r="W15" s="28"/>
+      <c r="X15" s="28"/>
+      <c r="Y15" s="25"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A16" s="42"/>
+      <c r="B16" s="19">
+        <v>15</v>
+      </c>
+      <c r="C16" s="20">
+        <v>3</v>
+      </c>
+      <c r="D16" s="20">
+        <v>4</v>
+      </c>
+      <c r="E16" s="20">
+        <v>3</v>
+      </c>
+      <c r="F16" s="20">
+        <v>2</v>
+      </c>
+      <c r="G16" s="20">
+        <v>3</v>
+      </c>
+      <c r="H16" s="20">
+        <v>2</v>
+      </c>
+      <c r="I16" s="20">
+        <v>3</v>
+      </c>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="29"/>
+      <c r="T16" s="28"/>
+      <c r="U16" s="28"/>
+      <c r="V16" s="28"/>
+      <c r="W16" s="28"/>
+      <c r="X16" s="28"/>
+      <c r="Y16" s="25"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A17" s="42"/>
+      <c r="B17" s="19">
+        <v>16</v>
+      </c>
+      <c r="C17" s="20">
+        <v>2</v>
+      </c>
+      <c r="D17" s="20">
+        <v>3</v>
+      </c>
+      <c r="E17" s="20">
+        <v>4</v>
+      </c>
+      <c r="F17" s="20">
+        <v>3</v>
+      </c>
+      <c r="G17" s="20">
+        <v>4</v>
+      </c>
+      <c r="H17" s="20">
+        <v>3</v>
+      </c>
+      <c r="I17" s="20">
+        <v>4</v>
+      </c>
+      <c r="J17" s="20">
+        <v>5</v>
+      </c>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="27"/>
+      <c r="S17" s="29"/>
+      <c r="T17" s="28"/>
+      <c r="U17" s="28"/>
+      <c r="V17" s="28"/>
+      <c r="W17" s="28"/>
+      <c r="X17" s="28"/>
+      <c r="Y17" s="25"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A18" s="42"/>
+      <c r="B18" s="19">
+        <v>17</v>
+      </c>
+      <c r="C18" s="20">
+        <v>5</v>
+      </c>
+      <c r="D18" s="20">
+        <v>4</v>
+      </c>
+      <c r="E18" s="20">
+        <v>3</v>
+      </c>
+      <c r="F18" s="20">
+        <v>2</v>
+      </c>
+      <c r="G18" s="20">
+        <v>3</v>
+      </c>
+      <c r="H18" s="20">
+        <v>4</v>
+      </c>
+      <c r="I18" s="20">
+        <v>3</v>
+      </c>
+      <c r="J18" s="20">
+        <v>4</v>
+      </c>
+      <c r="K18" s="20">
+        <v>3</v>
+      </c>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="27"/>
+      <c r="S18" s="29"/>
+      <c r="T18" s="28"/>
+      <c r="U18" s="28"/>
+      <c r="V18" s="28"/>
+      <c r="W18" s="28"/>
+      <c r="X18" s="28"/>
+      <c r="Y18" s="25"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A19" s="42"/>
+      <c r="B19" s="19">
+        <v>18</v>
+      </c>
+      <c r="C19" s="20">
+        <v>4</v>
+      </c>
+      <c r="D19" s="20">
+        <v>3</v>
+      </c>
+      <c r="E19" s="20">
+        <v>4</v>
+      </c>
+      <c r="F19" s="20">
+        <v>3</v>
+      </c>
+      <c r="G19" s="20">
+        <v>2</v>
+      </c>
+      <c r="H19" s="20">
+        <v>3</v>
+      </c>
+      <c r="I19" s="20">
+        <v>4</v>
+      </c>
+      <c r="J19" s="20">
+        <v>3</v>
+      </c>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="27"/>
+      <c r="S19" s="29"/>
+      <c r="T19" s="28"/>
+      <c r="U19" s="28"/>
+      <c r="V19" s="28"/>
+      <c r="W19" s="28"/>
+      <c r="X19" s="28"/>
+      <c r="Y19" s="25"/>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A20" s="42"/>
+      <c r="B20" s="19">
+        <v>19</v>
+      </c>
+      <c r="C20" s="20">
+        <v>3</v>
+      </c>
+      <c r="D20" s="20">
+        <v>2</v>
+      </c>
+      <c r="E20" s="20">
+        <v>3</v>
+      </c>
+      <c r="F20" s="20">
+        <v>4</v>
+      </c>
+      <c r="G20" s="20">
+        <v>5</v>
+      </c>
+      <c r="H20" s="20">
+        <v>4</v>
+      </c>
+      <c r="I20" s="20">
+        <v>3</v>
+      </c>
+      <c r="J20" s="20">
+        <v>2</v>
+      </c>
+      <c r="K20" s="20">
+        <v>3</v>
+      </c>
+      <c r="L20" s="20">
+        <v>4</v>
+      </c>
+      <c r="M20" s="20">
+        <v>3</v>
+      </c>
+      <c r="N20" s="20">
+        <v>4</v>
+      </c>
+      <c r="O20" s="20"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="27"/>
+      <c r="S20" s="29"/>
+      <c r="T20" s="28"/>
+      <c r="U20" s="28"/>
+      <c r="V20" s="28"/>
+      <c r="W20" s="28"/>
+      <c r="X20" s="28"/>
+      <c r="Y20" s="25"/>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A21" s="42"/>
+      <c r="B21" s="19">
+        <v>20</v>
+      </c>
+      <c r="C21" s="20">
+        <v>3</v>
+      </c>
+      <c r="D21" s="20">
+        <v>2</v>
+      </c>
+      <c r="E21" s="20">
+        <v>3</v>
+      </c>
+      <c r="F21" s="20">
+        <v>2</v>
+      </c>
+      <c r="G21" s="20">
+        <v>3</v>
+      </c>
+      <c r="H21" s="20">
+        <v>2</v>
+      </c>
+      <c r="I21" s="20">
+        <v>3</v>
+      </c>
+      <c r="J21" s="20">
+        <v>4</v>
+      </c>
+      <c r="K21" s="20">
+        <v>3</v>
+      </c>
+      <c r="L21" s="20">
+        <v>4</v>
+      </c>
+      <c r="M21" s="20">
+        <v>3</v>
+      </c>
+      <c r="N21" s="20">
+        <v>2</v>
+      </c>
+      <c r="O21" s="20">
+        <v>3</v>
+      </c>
+      <c r="P21" s="20">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="20">
+        <v>3</v>
+      </c>
+      <c r="R21" s="27">
+        <v>2</v>
+      </c>
+      <c r="S21" s="20">
+        <v>3</v>
+      </c>
+      <c r="T21" s="21">
+        <v>4</v>
+      </c>
+      <c r="U21" s="28"/>
+      <c r="V21" s="28"/>
+      <c r="W21" s="28"/>
+      <c r="X21" s="28"/>
+      <c r="Y21" s="25"/>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A22" s="42"/>
+      <c r="B22" s="19">
+        <v>21</v>
+      </c>
+      <c r="C22" s="20">
+        <v>1</v>
+      </c>
+      <c r="D22" s="20">
+        <v>2</v>
+      </c>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="27"/>
+      <c r="S22" s="29"/>
+      <c r="T22" s="28"/>
+      <c r="U22" s="28"/>
+      <c r="V22" s="28"/>
+      <c r="W22" s="28"/>
+      <c r="X22" s="28"/>
+      <c r="Y22" s="25"/>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A23" s="42"/>
+      <c r="B23" s="19">
+        <v>22</v>
+      </c>
+      <c r="C23" s="20">
+        <v>5</v>
+      </c>
+      <c r="D23" s="20">
+        <v>3</v>
+      </c>
+      <c r="E23" s="20">
+        <v>4</v>
+      </c>
+      <c r="F23" s="20">
+        <v>5</v>
+      </c>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="27"/>
+      <c r="S23" s="29"/>
+      <c r="T23" s="28"/>
+      <c r="U23" s="28"/>
+      <c r="V23" s="28"/>
+      <c r="W23" s="28"/>
+      <c r="X23" s="28"/>
+      <c r="Y23" s="25"/>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A24" s="42"/>
+      <c r="B24" s="19">
+        <v>23</v>
+      </c>
+      <c r="C24" s="20">
+        <v>3</v>
+      </c>
+      <c r="D24" s="20">
+        <v>4</v>
+      </c>
+      <c r="E24" s="20">
+        <v>3</v>
+      </c>
+      <c r="F24" s="20">
+        <v>4</v>
+      </c>
+      <c r="G24" s="20">
+        <v>3</v>
+      </c>
+      <c r="H24" s="20">
+        <v>4</v>
+      </c>
+      <c r="I24" s="20">
+        <v>3</v>
+      </c>
+      <c r="J24" s="20">
+        <v>-1</v>
+      </c>
+      <c r="K24" s="20">
+        <v>3</v>
+      </c>
+      <c r="L24" s="20">
+        <v>4</v>
+      </c>
+      <c r="M24" s="20"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="20"/>
+      <c r="R24" s="27"/>
+      <c r="S24" s="29"/>
+      <c r="T24" s="28"/>
+      <c r="U24" s="28"/>
+      <c r="V24" s="28"/>
+      <c r="W24" s="28"/>
+      <c r="X24" s="28"/>
+      <c r="Y24" s="25"/>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A25" s="42"/>
+      <c r="B25" s="19">
+        <v>24</v>
+      </c>
+      <c r="C25" s="20">
+        <v>3</v>
+      </c>
+      <c r="D25" s="20">
+        <v>2</v>
+      </c>
+      <c r="E25" s="20">
+        <v>-1</v>
+      </c>
+      <c r="F25" s="20">
+        <v>2</v>
+      </c>
+      <c r="G25" s="20">
+        <v>3</v>
+      </c>
+      <c r="H25" s="20">
+        <v>2</v>
+      </c>
+      <c r="I25" s="20">
+        <v>3</v>
+      </c>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="27"/>
+      <c r="S25" s="29"/>
+      <c r="T25" s="28"/>
+      <c r="U25" s="28"/>
+      <c r="V25" s="28"/>
+      <c r="W25" s="28"/>
+      <c r="X25" s="28"/>
+      <c r="Y25" s="25"/>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A26" s="42"/>
+      <c r="B26" s="19">
+        <v>25</v>
+      </c>
+      <c r="C26" s="20">
+        <v>2</v>
+      </c>
+      <c r="D26" s="20">
+        <v>3</v>
+      </c>
+      <c r="E26" s="20">
+        <v>2</v>
+      </c>
+      <c r="F26" s="20">
+        <v>-1</v>
+      </c>
+      <c r="G26" s="20">
+        <v>2</v>
+      </c>
+      <c r="H26" s="20">
+        <v>3</v>
+      </c>
+      <c r="I26" s="20">
+        <v>2</v>
+      </c>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="20"/>
+      <c r="R26" s="27"/>
+      <c r="S26" s="29"/>
+      <c r="T26" s="28"/>
+      <c r="U26" s="28"/>
+      <c r="V26" s="28"/>
+      <c r="W26" s="28"/>
+      <c r="X26" s="28"/>
+      <c r="Y26" s="25"/>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A27" s="42"/>
+      <c r="B27" s="19">
+        <v>26</v>
+      </c>
+      <c r="C27" s="20">
+        <v>2</v>
+      </c>
+      <c r="D27" s="20">
+        <v>3</v>
+      </c>
+      <c r="E27" s="20">
+        <v>2</v>
+      </c>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20">
+        <v>3</v>
+      </c>
+      <c r="H27" s="20">
+        <v>2</v>
+      </c>
+      <c r="I27" s="20">
+        <v>3</v>
+      </c>
+      <c r="J27" s="20">
+        <v>2</v>
+      </c>
+      <c r="K27" s="20">
+        <v>3</v>
+      </c>
+      <c r="L27" s="20">
+        <v>2</v>
+      </c>
+      <c r="M27" s="20">
+        <v>3</v>
+      </c>
+      <c r="N27" s="20">
+        <v>2</v>
+      </c>
+      <c r="O27" s="20">
+        <v>-1</v>
+      </c>
+      <c r="P27" s="20">
+        <v>2</v>
+      </c>
+      <c r="Q27" s="20">
+        <v>3</v>
+      </c>
+      <c r="R27" s="27"/>
+      <c r="S27" s="29"/>
+      <c r="T27" s="28"/>
+      <c r="U27" s="28"/>
+      <c r="V27" s="28"/>
+      <c r="W27" s="28"/>
+      <c r="X27" s="28"/>
+      <c r="Y27" s="25"/>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A28" s="42"/>
+      <c r="B28" s="19">
+        <v>27</v>
+      </c>
+      <c r="C28" s="20">
+        <v>4</v>
+      </c>
+      <c r="D28" s="20">
+        <v>5</v>
+      </c>
+      <c r="E28" s="20">
+        <v>4</v>
+      </c>
+      <c r="F28" s="20">
+        <v>3</v>
+      </c>
+      <c r="G28" s="20">
+        <v>4</v>
+      </c>
+      <c r="H28" s="20">
+        <v>3</v>
+      </c>
+      <c r="I28" s="20">
+        <v>4</v>
+      </c>
+      <c r="J28" s="20">
+        <v>3</v>
+      </c>
+      <c r="K28" s="20">
+        <v>4</v>
+      </c>
+      <c r="L28" s="20">
+        <v>3</v>
+      </c>
+      <c r="M28" s="20">
+        <v>4</v>
+      </c>
+      <c r="N28" s="20">
+        <v>3</v>
+      </c>
+      <c r="O28" s="20">
+        <v>4</v>
+      </c>
+      <c r="P28" s="20">
+        <v>3</v>
+      </c>
+      <c r="Q28" s="20">
+        <v>4</v>
+      </c>
+      <c r="R28" s="27">
+        <v>3</v>
+      </c>
+      <c r="S28" s="29"/>
+      <c r="T28" s="28"/>
+      <c r="U28" s="28"/>
+      <c r="V28" s="28"/>
+      <c r="W28" s="28"/>
+      <c r="X28" s="28"/>
+      <c r="Y28" s="25"/>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A29" s="42"/>
+      <c r="B29" s="19">
+        <v>28</v>
+      </c>
+      <c r="C29" s="20">
+        <v>3</v>
+      </c>
+      <c r="D29" s="20">
+        <v>4</v>
+      </c>
+      <c r="E29" s="20">
+        <v>3</v>
+      </c>
+      <c r="F29" s="20">
+        <v>4</v>
+      </c>
+      <c r="G29" s="20">
+        <v>3</v>
+      </c>
+      <c r="H29" s="20">
+        <v>4</v>
+      </c>
+      <c r="I29" s="20">
+        <v>3</v>
+      </c>
+      <c r="J29" s="20">
+        <v>4</v>
+      </c>
+      <c r="K29" s="20">
+        <v>3</v>
+      </c>
+      <c r="L29" s="20">
+        <v>4</v>
+      </c>
+      <c r="M29" s="20"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="20"/>
+      <c r="R29" s="27"/>
+      <c r="S29" s="29"/>
+      <c r="T29" s="28"/>
+      <c r="U29" s="28"/>
+      <c r="V29" s="28"/>
+      <c r="W29" s="28"/>
+      <c r="X29" s="28"/>
+      <c r="Y29" s="25"/>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A30" s="42"/>
+      <c r="B30" s="19">
+        <v>29</v>
+      </c>
+      <c r="C30" s="20">
+        <v>4</v>
+      </c>
+      <c r="D30" s="20">
+        <v>3</v>
+      </c>
+      <c r="E30" s="20">
+        <v>4</v>
+      </c>
+      <c r="F30" s="20">
+        <v>3</v>
+      </c>
+      <c r="G30" s="20">
+        <v>4</v>
+      </c>
+      <c r="H30" s="20">
+        <v>3</v>
+      </c>
+      <c r="I30" s="20">
+        <v>4</v>
+      </c>
+      <c r="J30" s="20">
+        <v>3</v>
+      </c>
+      <c r="K30" s="20">
+        <v>4</v>
+      </c>
+      <c r="L30" s="20">
+        <v>3</v>
+      </c>
+      <c r="M30" s="20">
+        <v>-1</v>
+      </c>
+      <c r="N30" s="20">
+        <v>2</v>
+      </c>
+      <c r="O30" s="20">
+        <v>3</v>
+      </c>
+      <c r="P30" s="20"/>
+      <c r="Q30" s="20"/>
+      <c r="R30" s="27"/>
+      <c r="S30" s="29"/>
+      <c r="T30" s="28"/>
+      <c r="U30" s="28"/>
+      <c r="V30" s="28"/>
+      <c r="W30" s="28"/>
+      <c r="X30" s="28"/>
+      <c r="Y30" s="25"/>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A31" s="42"/>
+      <c r="B31" s="19">
+        <v>30</v>
+      </c>
+      <c r="C31" s="20">
+        <v>-1</v>
+      </c>
+      <c r="D31" s="20">
+        <v>1</v>
+      </c>
+      <c r="E31" s="20">
+        <v>2</v>
+      </c>
+      <c r="F31" s="20">
+        <v>3</v>
+      </c>
+      <c r="G31" s="20">
+        <v>4</v>
+      </c>
+      <c r="H31" s="20">
+        <v>5</v>
+      </c>
+      <c r="I31" s="20">
+        <v>-1</v>
+      </c>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="20"/>
+      <c r="Q31" s="20"/>
+      <c r="R31" s="27"/>
+      <c r="S31" s="29"/>
+      <c r="T31" s="28"/>
+      <c r="U31" s="28"/>
+      <c r="V31" s="28"/>
+      <c r="W31" s="28"/>
+      <c r="X31" s="28"/>
+      <c r="Y31" s="25"/>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A32" s="42"/>
+      <c r="B32" s="19">
+        <v>31</v>
+      </c>
+      <c r="C32" s="20">
+        <v>1</v>
+      </c>
+      <c r="D32" s="20">
+        <v>2</v>
+      </c>
+      <c r="E32" s="20">
+        <v>3</v>
+      </c>
+      <c r="F32" s="20">
+        <v>2</v>
+      </c>
+      <c r="G32" s="20">
+        <v>-1</v>
+      </c>
+      <c r="H32" s="20">
+        <v>1</v>
+      </c>
+      <c r="I32" s="20">
+        <v>2</v>
+      </c>
+      <c r="J32" s="20">
+        <v>3</v>
+      </c>
+      <c r="K32" s="20">
+        <v>2</v>
+      </c>
+      <c r="L32" s="20">
+        <v>-1</v>
+      </c>
+      <c r="M32" s="20">
+        <v>2</v>
+      </c>
+      <c r="N32" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="O32" s="20">
+        <v>3</v>
+      </c>
+      <c r="P32" s="20">
+        <v>4</v>
+      </c>
+      <c r="Q32" s="20">
+        <v>3</v>
+      </c>
+      <c r="R32" s="27">
+        <v>-1</v>
+      </c>
+      <c r="S32" s="20">
+        <v>2</v>
+      </c>
+      <c r="T32" s="20">
+        <v>3</v>
+      </c>
+      <c r="U32" s="20">
+        <v>4</v>
+      </c>
+      <c r="V32" s="20">
+        <v>3</v>
+      </c>
+      <c r="W32" s="20">
+        <v>2</v>
+      </c>
+      <c r="X32" s="20">
+        <v>3</v>
+      </c>
+      <c r="Y32" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A33" s="42"/>
+      <c r="B33" s="19">
+        <v>32</v>
+      </c>
+      <c r="C33" s="21">
+        <v>4</v>
+      </c>
+      <c r="D33" s="20">
+        <v>2</v>
+      </c>
+      <c r="E33" s="20">
+        <v>3</v>
+      </c>
+      <c r="F33" s="20">
+        <v>4</v>
+      </c>
+      <c r="G33" s="20">
+        <v>-1</v>
+      </c>
+      <c r="H33" s="20">
+        <v>1</v>
+      </c>
+      <c r="I33" s="20">
+        <v>2</v>
+      </c>
+      <c r="J33" s="20">
+        <v>3</v>
+      </c>
+      <c r="K33" s="20">
+        <v>4</v>
+      </c>
+      <c r="L33" s="20">
+        <v>3</v>
+      </c>
+      <c r="M33" s="20">
+        <v>-1</v>
+      </c>
+      <c r="N33" s="20"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="20"/>
+      <c r="Q33" s="20"/>
+      <c r="R33" s="27"/>
+      <c r="S33" s="29"/>
+      <c r="T33" s="28"/>
+      <c r="U33" s="28"/>
+      <c r="V33" s="28"/>
+      <c r="W33" s="28"/>
+      <c r="X33" s="28"/>
+      <c r="Y33" s="25"/>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A34" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="19">
+        <v>33</v>
+      </c>
+      <c r="C34" s="20">
+        <v>-1</v>
+      </c>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="20"/>
+      <c r="P34" s="20"/>
+      <c r="Q34" s="20"/>
+      <c r="R34" s="27"/>
+      <c r="S34" s="29"/>
+      <c r="T34" s="28"/>
+      <c r="U34" s="28"/>
+      <c r="V34" s="28"/>
+      <c r="W34" s="28"/>
+      <c r="X34" s="28"/>
+      <c r="Y34" s="25"/>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A35" s="44"/>
+      <c r="B35" s="19">
+        <v>34</v>
+      </c>
+      <c r="C35" s="20">
+        <v>1</v>
+      </c>
+      <c r="D35" s="20">
+        <v>2</v>
+      </c>
+      <c r="E35" s="20">
+        <v>3</v>
+      </c>
+      <c r="F35" s="20">
+        <v>4</v>
+      </c>
+      <c r="G35" s="20">
+        <v>5</v>
+      </c>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="20"/>
+      <c r="N35" s="20"/>
+      <c r="O35" s="20"/>
+      <c r="P35" s="20"/>
+      <c r="Q35" s="20"/>
+      <c r="R35" s="27"/>
+      <c r="S35" s="29"/>
+      <c r="T35" s="28"/>
+      <c r="U35" s="28"/>
+      <c r="V35" s="28"/>
+      <c r="W35" s="28"/>
+      <c r="X35" s="28"/>
+      <c r="Y35" s="25"/>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A36" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" s="19">
+        <v>35</v>
+      </c>
+      <c r="C36" s="20">
+        <v>3</v>
+      </c>
+      <c r="D36" s="20">
+        <v>1</v>
+      </c>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="20"/>
+      <c r="N36" s="20"/>
+      <c r="O36" s="20"/>
+      <c r="P36" s="20"/>
+      <c r="Q36" s="20"/>
+      <c r="R36" s="27"/>
+      <c r="S36" s="29"/>
+      <c r="T36" s="28"/>
+      <c r="U36" s="28"/>
+      <c r="V36" s="28"/>
+      <c r="W36" s="28"/>
+      <c r="X36" s="28"/>
+      <c r="Y36" s="25"/>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A37" s="42"/>
+      <c r="B37" s="19">
+        <v>36</v>
+      </c>
+      <c r="C37" s="20">
+        <v>4</v>
+      </c>
+      <c r="D37" s="20">
+        <v>2</v>
+      </c>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="20"/>
+      <c r="N37" s="20"/>
+      <c r="O37" s="20"/>
+      <c r="P37" s="20"/>
+      <c r="Q37" s="20"/>
+      <c r="R37" s="27"/>
+      <c r="S37" s="29"/>
+      <c r="T37" s="28"/>
+      <c r="U37" s="28"/>
+      <c r="V37" s="28"/>
+      <c r="W37" s="28"/>
+      <c r="X37" s="28"/>
+      <c r="Y37" s="25"/>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A38" s="42"/>
+      <c r="B38" s="19">
+        <v>37</v>
+      </c>
+      <c r="C38" s="20">
+        <v>5</v>
+      </c>
+      <c r="D38" s="20">
+        <v>3</v>
+      </c>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="20"/>
+      <c r="N38" s="20"/>
+      <c r="O38" s="20"/>
+      <c r="P38" s="20"/>
+      <c r="Q38" s="20"/>
+      <c r="R38" s="27"/>
+      <c r="S38" s="29"/>
+      <c r="T38" s="28"/>
+      <c r="U38" s="28"/>
+      <c r="V38" s="28"/>
+      <c r="W38" s="28"/>
+      <c r="X38" s="28"/>
+      <c r="Y38" s="25"/>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A39" s="42"/>
+      <c r="B39" s="19">
+        <v>38</v>
+      </c>
+      <c r="C39" s="20">
+        <v>1</v>
+      </c>
+      <c r="D39" s="20">
+        <v>2</v>
+      </c>
+      <c r="E39" s="20">
+        <v>3</v>
+      </c>
+      <c r="F39" s="20">
+        <v>4</v>
+      </c>
+      <c r="G39" s="20">
+        <v>5</v>
+      </c>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="20"/>
+      <c r="N39" s="20"/>
+      <c r="O39" s="20"/>
+      <c r="P39" s="20"/>
+      <c r="Q39" s="20"/>
+      <c r="R39" s="27"/>
+      <c r="S39" s="29"/>
+      <c r="T39" s="28"/>
+      <c r="U39" s="28"/>
+      <c r="V39" s="28"/>
+      <c r="W39" s="28"/>
+      <c r="X39" s="28"/>
+      <c r="Y39" s="25"/>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A40" s="42"/>
+      <c r="B40" s="19">
+        <v>39</v>
+      </c>
+      <c r="C40" s="20">
+        <v>2</v>
+      </c>
+      <c r="D40" s="20">
+        <v>3</v>
+      </c>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="20"/>
+      <c r="N40" s="20"/>
+      <c r="O40" s="20"/>
+      <c r="P40" s="20"/>
+      <c r="Q40" s="20"/>
+      <c r="R40" s="27"/>
+      <c r="S40" s="29"/>
+      <c r="T40" s="28"/>
+      <c r="U40" s="28"/>
+      <c r="V40" s="28"/>
+      <c r="W40" s="28"/>
+      <c r="X40" s="28"/>
+      <c r="Y40" s="25"/>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A41" s="42"/>
+      <c r="B41" s="19">
+        <v>40</v>
+      </c>
+      <c r="C41" s="20">
+        <v>5</v>
+      </c>
+      <c r="D41" s="20">
+        <v>4</v>
+      </c>
+      <c r="E41" s="20">
+        <v>5</v>
+      </c>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="20"/>
+      <c r="L41" s="20"/>
+      <c r="M41" s="20"/>
+      <c r="N41" s="20"/>
+      <c r="O41" s="20"/>
+      <c r="P41" s="20"/>
+      <c r="Q41" s="20"/>
+      <c r="R41" s="27"/>
+      <c r="S41" s="29"/>
+      <c r="T41" s="28"/>
+      <c r="U41" s="28"/>
+      <c r="V41" s="28"/>
+      <c r="W41" s="28"/>
+      <c r="X41" s="28"/>
+      <c r="Y41" s="25"/>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A42" s="42"/>
+      <c r="B42" s="19">
+        <v>41</v>
+      </c>
+      <c r="C42" s="20">
+        <v>4</v>
+      </c>
+      <c r="D42" s="20">
+        <v>5</v>
+      </c>
+      <c r="E42" s="20">
+        <v>3</v>
+      </c>
+      <c r="F42" s="20">
+        <v>4</v>
+      </c>
+      <c r="G42" s="20">
+        <v>2</v>
+      </c>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="20"/>
+      <c r="K42" s="20"/>
+      <c r="L42" s="20"/>
+      <c r="M42" s="20"/>
+      <c r="N42" s="20"/>
+      <c r="O42" s="20"/>
+      <c r="P42" s="20"/>
+      <c r="Q42" s="20"/>
+      <c r="R42" s="27"/>
+      <c r="S42" s="29"/>
+      <c r="T42" s="28"/>
+      <c r="U42" s="28"/>
+      <c r="V42" s="28"/>
+      <c r="W42" s="28"/>
+      <c r="X42" s="28"/>
+      <c r="Y42" s="25"/>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A43" s="42"/>
+      <c r="B43" s="19">
+        <v>42</v>
+      </c>
+      <c r="C43" s="20">
+        <v>4</v>
+      </c>
+      <c r="D43" s="20">
+        <v>5</v>
+      </c>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="20"/>
+      <c r="K43" s="20"/>
+      <c r="L43" s="20"/>
+      <c r="M43" s="20"/>
+      <c r="N43" s="20"/>
+      <c r="O43" s="20"/>
+      <c r="P43" s="20"/>
+      <c r="Q43" s="20"/>
+      <c r="R43" s="27"/>
+      <c r="S43" s="29"/>
+      <c r="T43" s="28"/>
+      <c r="U43" s="28"/>
+      <c r="V43" s="28"/>
+      <c r="W43" s="28"/>
+      <c r="X43" s="28"/>
+      <c r="Y43" s="25"/>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A44" s="42"/>
+      <c r="B44" s="19">
+        <v>43</v>
+      </c>
+      <c r="C44" s="20">
+        <v>5</v>
+      </c>
+      <c r="D44" s="20">
+        <v>4</v>
+      </c>
+      <c r="E44" s="20">
+        <v>3</v>
+      </c>
+      <c r="F44" s="20">
+        <v>2</v>
+      </c>
+      <c r="G44" s="20"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
+      <c r="K44" s="20"/>
+      <c r="L44" s="20"/>
+      <c r="M44" s="20"/>
+      <c r="N44" s="20"/>
+      <c r="O44" s="20"/>
+      <c r="P44" s="20"/>
+      <c r="Q44" s="20"/>
+      <c r="R44" s="27"/>
+      <c r="S44" s="29"/>
+      <c r="T44" s="28"/>
+      <c r="U44" s="28"/>
+      <c r="V44" s="28"/>
+      <c r="W44" s="28"/>
+      <c r="X44" s="28"/>
+      <c r="Y44" s="25"/>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A45" s="42"/>
+      <c r="B45" s="19">
+        <v>44</v>
+      </c>
+      <c r="C45" s="20">
+        <v>3</v>
+      </c>
+      <c r="D45" s="20">
+        <v>4</v>
+      </c>
+      <c r="E45" s="20">
+        <v>5</v>
+      </c>
+      <c r="F45" s="20">
+        <v>4</v>
+      </c>
+      <c r="G45" s="20">
+        <v>3</v>
+      </c>
+      <c r="H45" s="20">
+        <v>2</v>
+      </c>
+      <c r="I45" s="20"/>
+      <c r="J45" s="20"/>
+      <c r="K45" s="20"/>
+      <c r="L45" s="20"/>
+      <c r="M45" s="20"/>
+      <c r="N45" s="20"/>
+      <c r="O45" s="20"/>
+      <c r="P45" s="20"/>
+      <c r="Q45" s="20"/>
+      <c r="R45" s="27"/>
+      <c r="S45" s="29"/>
+      <c r="T45" s="28"/>
+      <c r="U45" s="28"/>
+      <c r="V45" s="28"/>
+      <c r="W45" s="28"/>
+      <c r="X45" s="28"/>
+      <c r="Y45" s="25"/>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A46" s="42"/>
+      <c r="B46" s="19">
+        <v>45</v>
+      </c>
+      <c r="C46" s="20">
+        <v>4</v>
+      </c>
+      <c r="D46" s="20">
+        <v>3</v>
+      </c>
+      <c r="E46" s="20">
+        <v>4</v>
+      </c>
+      <c r="F46" s="20"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="20"/>
+      <c r="K46" s="20"/>
+      <c r="L46" s="20"/>
+      <c r="M46" s="20"/>
+      <c r="N46" s="20"/>
+      <c r="O46" s="20"/>
+      <c r="P46" s="20"/>
+      <c r="Q46" s="20"/>
+      <c r="R46" s="27"/>
+      <c r="S46" s="29"/>
+      <c r="T46" s="28"/>
+      <c r="U46" s="28"/>
+      <c r="V46" s="28"/>
+      <c r="W46" s="28"/>
+      <c r="X46" s="28"/>
+      <c r="Y46" s="25"/>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A47" s="42"/>
+      <c r="B47" s="19">
+        <v>46</v>
+      </c>
+      <c r="C47" s="20">
+        <v>4</v>
+      </c>
+      <c r="D47" s="20">
+        <v>5</v>
+      </c>
+      <c r="E47" s="20">
+        <v>4</v>
+      </c>
+      <c r="F47" s="20">
+        <v>3</v>
+      </c>
+      <c r="G47" s="20">
+        <v>4</v>
+      </c>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="20"/>
+      <c r="K47" s="20"/>
+      <c r="L47" s="20"/>
+      <c r="M47" s="20"/>
+      <c r="N47" s="20"/>
+      <c r="O47" s="20"/>
+      <c r="P47" s="20"/>
+      <c r="Q47" s="20"/>
+      <c r="R47" s="27"/>
+      <c r="S47" s="29"/>
+      <c r="T47" s="28"/>
+      <c r="U47" s="28"/>
+      <c r="V47" s="28"/>
+      <c r="W47" s="28"/>
+      <c r="X47" s="28"/>
+      <c r="Y47" s="25"/>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A48" s="42"/>
+      <c r="B48" s="19">
+        <v>47</v>
+      </c>
+      <c r="C48" s="20">
+        <v>3</v>
+      </c>
+      <c r="D48" s="20">
+        <v>4</v>
+      </c>
+      <c r="E48" s="20">
+        <v>5</v>
+      </c>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="20"/>
+      <c r="K48" s="20"/>
+      <c r="L48" s="20"/>
+      <c r="M48" s="20"/>
+      <c r="N48" s="20"/>
+      <c r="O48" s="20"/>
+      <c r="P48" s="20"/>
+      <c r="Q48" s="20"/>
+      <c r="R48" s="27"/>
+      <c r="S48" s="29"/>
+      <c r="T48" s="28"/>
+      <c r="U48" s="28"/>
+      <c r="V48" s="28"/>
+      <c r="W48" s="28"/>
+      <c r="X48" s="28"/>
+      <c r="Y48" s="25"/>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A49" s="42"/>
+      <c r="B49" s="19">
+        <v>48</v>
+      </c>
+      <c r="C49" s="20">
+        <v>5</v>
+      </c>
+      <c r="D49" s="20">
+        <v>4</v>
+      </c>
+      <c r="E49" s="20">
+        <v>3</v>
+      </c>
+      <c r="F49" s="20">
+        <v>2</v>
+      </c>
+      <c r="G49" s="20">
+        <v>3</v>
+      </c>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="20"/>
+      <c r="K49" s="20"/>
+      <c r="L49" s="20"/>
+      <c r="M49" s="20"/>
+      <c r="N49" s="20"/>
+      <c r="O49" s="20"/>
+      <c r="P49" s="20"/>
+      <c r="Q49" s="20"/>
+      <c r="R49" s="27"/>
+      <c r="S49" s="29"/>
+      <c r="T49" s="28"/>
+      <c r="U49" s="28"/>
+      <c r="V49" s="28"/>
+      <c r="W49" s="28"/>
+      <c r="X49" s="28"/>
+      <c r="Y49" s="25"/>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A50" s="42"/>
+      <c r="B50" s="19">
+        <v>49</v>
+      </c>
+      <c r="C50" s="20">
+        <v>5</v>
+      </c>
+      <c r="D50" s="20">
+        <v>4</v>
+      </c>
+      <c r="E50" s="20">
+        <v>5</v>
+      </c>
+      <c r="F50" s="20">
+        <v>4</v>
+      </c>
+      <c r="G50" s="20">
+        <v>5</v>
+      </c>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="20"/>
+      <c r="K50" s="20"/>
+      <c r="L50" s="20"/>
+      <c r="M50" s="20"/>
+      <c r="N50" s="20"/>
+      <c r="O50" s="20"/>
+      <c r="P50" s="20"/>
+      <c r="Q50" s="20"/>
+      <c r="R50" s="27"/>
+      <c r="S50" s="29"/>
+      <c r="T50" s="28"/>
+      <c r="U50" s="28"/>
+      <c r="V50" s="28"/>
+      <c r="W50" s="28"/>
+      <c r="X50" s="28"/>
+      <c r="Y50" s="25"/>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A51" s="42"/>
+      <c r="B51" s="19">
+        <v>50</v>
+      </c>
+      <c r="C51" s="20">
+        <v>4</v>
+      </c>
+      <c r="D51" s="20">
+        <v>5</v>
+      </c>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="20"/>
+      <c r="K51" s="20"/>
+      <c r="L51" s="20"/>
+      <c r="M51" s="20"/>
+      <c r="N51" s="20"/>
+      <c r="O51" s="20"/>
+      <c r="P51" s="20"/>
+      <c r="Q51" s="20"/>
+      <c r="R51" s="27"/>
+      <c r="S51" s="29"/>
+      <c r="T51" s="28"/>
+      <c r="U51" s="28"/>
+      <c r="V51" s="28"/>
+      <c r="W51" s="28"/>
+      <c r="X51" s="28"/>
+      <c r="Y51" s="25"/>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A52" s="42"/>
+      <c r="B52" s="19">
+        <v>51</v>
+      </c>
+      <c r="C52" s="20">
+        <v>2</v>
+      </c>
+      <c r="D52" s="20">
+        <v>3</v>
+      </c>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="20"/>
+      <c r="K52" s="20"/>
+      <c r="L52" s="20"/>
+      <c r="M52" s="20"/>
+      <c r="N52" s="20"/>
+      <c r="O52" s="20"/>
+      <c r="P52" s="20"/>
+      <c r="Q52" s="20"/>
+      <c r="R52" s="27"/>
+      <c r="S52" s="29"/>
+      <c r="T52" s="28"/>
+      <c r="U52" s="28"/>
+      <c r="V52" s="28"/>
+      <c r="W52" s="28"/>
+      <c r="X52" s="28"/>
+      <c r="Y52" s="25"/>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A53" s="42"/>
+      <c r="B53" s="19">
+        <v>52</v>
+      </c>
+      <c r="C53" s="20">
+        <v>5</v>
+      </c>
+      <c r="D53" s="20">
+        <v>4</v>
+      </c>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="20"/>
+      <c r="K53" s="20"/>
+      <c r="L53" s="20"/>
+      <c r="M53" s="20"/>
+      <c r="N53" s="20"/>
+      <c r="O53" s="20"/>
+      <c r="P53" s="20"/>
+      <c r="Q53" s="20"/>
+      <c r="R53" s="27"/>
+      <c r="S53" s="29"/>
+      <c r="T53" s="28"/>
+      <c r="U53" s="28"/>
+      <c r="V53" s="28"/>
+      <c r="W53" s="28"/>
+      <c r="X53" s="28"/>
+      <c r="Y53" s="25"/>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A54" s="42"/>
+      <c r="B54" s="19">
+        <v>53</v>
+      </c>
+      <c r="C54" s="20">
+        <v>3</v>
+      </c>
+      <c r="D54" s="20">
+        <v>4</v>
+      </c>
+      <c r="E54" s="20"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="20"/>
+      <c r="K54" s="20"/>
+      <c r="L54" s="20"/>
+      <c r="M54" s="20"/>
+      <c r="N54" s="20"/>
+      <c r="O54" s="20"/>
+      <c r="P54" s="20"/>
+      <c r="Q54" s="20"/>
+      <c r="R54" s="27"/>
+      <c r="S54" s="29"/>
+      <c r="T54" s="28"/>
+      <c r="U54" s="28"/>
+      <c r="V54" s="28"/>
+      <c r="W54" s="28"/>
+      <c r="X54" s="28"/>
+      <c r="Y54" s="25"/>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A55" s="42"/>
+      <c r="B55" s="19">
+        <v>54</v>
+      </c>
+      <c r="C55" s="20">
+        <v>5</v>
+      </c>
+      <c r="D55" s="20">
+        <v>3</v>
+      </c>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="20"/>
+      <c r="K55" s="20"/>
+      <c r="L55" s="20"/>
+      <c r="M55" s="20"/>
+      <c r="N55" s="20"/>
+      <c r="O55" s="20"/>
+      <c r="P55" s="20"/>
+      <c r="Q55" s="20"/>
+      <c r="R55" s="27"/>
+      <c r="S55" s="29"/>
+      <c r="T55" s="28"/>
+      <c r="U55" s="28"/>
+      <c r="V55" s="28"/>
+      <c r="W55" s="28"/>
+      <c r="X55" s="28"/>
+      <c r="Y55" s="25"/>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A56" s="42"/>
+      <c r="B56" s="19">
+        <v>55</v>
+      </c>
+      <c r="C56" s="20">
+        <v>4</v>
+      </c>
+      <c r="D56" s="20">
+        <v>3</v>
+      </c>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="20"/>
+      <c r="K56" s="20"/>
+      <c r="L56" s="20"/>
+      <c r="M56" s="20"/>
+      <c r="N56" s="20"/>
+      <c r="O56" s="20"/>
+      <c r="P56" s="20"/>
+      <c r="Q56" s="20"/>
+      <c r="R56" s="27"/>
+      <c r="S56" s="29"/>
+      <c r="T56" s="28"/>
+      <c r="U56" s="28"/>
+      <c r="V56" s="28"/>
+      <c r="W56" s="28"/>
+      <c r="X56" s="28"/>
+      <c r="Y56" s="25"/>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A57" s="42"/>
+      <c r="B57" s="19">
+        <v>56</v>
+      </c>
+      <c r="C57" s="20">
+        <v>1</v>
+      </c>
+      <c r="D57" s="20">
+        <v>2</v>
+      </c>
+      <c r="E57" s="20">
+        <v>3</v>
+      </c>
+      <c r="F57" s="20"/>
+      <c r="G57" s="20"/>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="20"/>
+      <c r="K57" s="20"/>
+      <c r="L57" s="20"/>
+      <c r="M57" s="20"/>
+      <c r="N57" s="20"/>
+      <c r="O57" s="20"/>
+      <c r="P57" s="20"/>
+      <c r="Q57" s="20"/>
+      <c r="R57" s="27"/>
+      <c r="S57" s="29"/>
+      <c r="T57" s="28"/>
+      <c r="U57" s="28"/>
+      <c r="V57" s="28"/>
+      <c r="W57" s="28"/>
+      <c r="X57" s="28"/>
+      <c r="Y57" s="25"/>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A58" s="42"/>
+      <c r="B58" s="19">
+        <v>57</v>
+      </c>
+      <c r="C58" s="20">
+        <v>3</v>
+      </c>
+      <c r="D58" s="20">
+        <v>4</v>
+      </c>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="20"/>
+      <c r="K58" s="20"/>
+      <c r="L58" s="20"/>
+      <c r="M58" s="20"/>
+      <c r="N58" s="20"/>
+      <c r="O58" s="20"/>
+      <c r="P58" s="20"/>
+      <c r="Q58" s="20"/>
+      <c r="R58" s="27"/>
+      <c r="S58" s="29"/>
+      <c r="T58" s="28"/>
+      <c r="U58" s="28"/>
+      <c r="V58" s="28"/>
+      <c r="W58" s="28"/>
+      <c r="X58" s="28"/>
+      <c r="Y58" s="25"/>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A59" s="42"/>
+      <c r="B59" s="19">
+        <v>58</v>
+      </c>
+      <c r="C59" s="20">
+        <v>2</v>
+      </c>
+      <c r="D59" s="20">
+        <v>3</v>
+      </c>
+      <c r="E59" s="20"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="20"/>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="20"/>
+      <c r="K59" s="20"/>
+      <c r="L59" s="20"/>
+      <c r="M59" s="20"/>
+      <c r="N59" s="20"/>
+      <c r="O59" s="20"/>
+      <c r="P59" s="20"/>
+      <c r="Q59" s="20"/>
+      <c r="R59" s="27"/>
+      <c r="S59" s="29"/>
+      <c r="T59" s="28"/>
+      <c r="U59" s="28"/>
+      <c r="V59" s="28"/>
+      <c r="W59" s="28"/>
+      <c r="X59" s="28"/>
+      <c r="Y59" s="25"/>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A60" s="42"/>
+      <c r="B60" s="19">
+        <v>59</v>
+      </c>
+      <c r="C60" s="20">
+        <v>4</v>
+      </c>
+      <c r="D60" s="20">
+        <v>5</v>
+      </c>
+      <c r="E60" s="20"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="20"/>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="20"/>
+      <c r="K60" s="20"/>
+      <c r="L60" s="20"/>
+      <c r="M60" s="20"/>
+      <c r="N60" s="20"/>
+      <c r="O60" s="20"/>
+      <c r="P60" s="20"/>
+      <c r="Q60" s="20"/>
+      <c r="R60" s="27"/>
+      <c r="S60" s="29"/>
+      <c r="T60" s="28"/>
+      <c r="U60" s="28"/>
+      <c r="V60" s="28"/>
+      <c r="W60" s="28"/>
+      <c r="X60" s="28"/>
+      <c r="Y60" s="25"/>
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A61" s="42"/>
+      <c r="B61" s="19">
+        <v>60</v>
+      </c>
+      <c r="C61" s="20">
+        <v>2</v>
+      </c>
+      <c r="D61" s="20">
+        <v>3</v>
+      </c>
+      <c r="E61" s="20"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="20"/>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="20"/>
+      <c r="K61" s="20"/>
+      <c r="L61" s="20"/>
+      <c r="M61" s="20"/>
+      <c r="N61" s="20"/>
+      <c r="O61" s="20"/>
+      <c r="P61" s="20"/>
+      <c r="Q61" s="20"/>
+      <c r="R61" s="27"/>
+      <c r="S61" s="29"/>
+      <c r="T61" s="28"/>
+      <c r="U61" s="28"/>
+      <c r="V61" s="28"/>
+      <c r="W61" s="28"/>
+      <c r="X61" s="28"/>
+      <c r="Y61" s="25"/>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A62" s="42"/>
+      <c r="B62" s="19">
+        <v>61</v>
+      </c>
+      <c r="C62" s="20">
+        <v>1</v>
+      </c>
+      <c r="D62" s="20">
+        <v>2</v>
+      </c>
+      <c r="E62" s="20">
+        <v>3</v>
+      </c>
+      <c r="F62" s="20"/>
+      <c r="G62" s="20"/>
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="20"/>
+      <c r="K62" s="20"/>
+      <c r="L62" s="20"/>
+      <c r="M62" s="20"/>
+      <c r="N62" s="20"/>
+      <c r="O62" s="20"/>
+      <c r="P62" s="20"/>
+      <c r="Q62" s="20"/>
+      <c r="R62" s="27"/>
+      <c r="S62" s="29"/>
+      <c r="T62" s="28"/>
+      <c r="U62" s="28"/>
+      <c r="V62" s="28"/>
+      <c r="W62" s="28"/>
+      <c r="X62" s="28"/>
+      <c r="Y62" s="25"/>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A63" s="42"/>
+      <c r="B63" s="19">
+        <v>62</v>
+      </c>
+      <c r="C63" s="20">
+        <v>1</v>
+      </c>
+      <c r="D63" s="20">
+        <v>2</v>
+      </c>
+      <c r="E63" s="20"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="20"/>
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="20"/>
+      <c r="K63" s="20"/>
+      <c r="L63" s="20"/>
+      <c r="M63" s="20"/>
+      <c r="N63" s="20"/>
+      <c r="O63" s="20"/>
+      <c r="P63" s="20"/>
+      <c r="Q63" s="20"/>
+      <c r="R63" s="27"/>
+      <c r="S63" s="29"/>
+      <c r="T63" s="28"/>
+      <c r="U63" s="28"/>
+      <c r="V63" s="28"/>
+      <c r="W63" s="28"/>
+      <c r="X63" s="28"/>
+      <c r="Y63" s="25"/>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A64" s="42"/>
+      <c r="B64" s="19">
+        <v>63</v>
+      </c>
+      <c r="C64" s="20">
+        <v>1</v>
+      </c>
+      <c r="D64" s="20">
+        <v>2</v>
+      </c>
+      <c r="E64" s="20">
+        <v>3</v>
+      </c>
+      <c r="F64" s="20">
+        <v>4</v>
+      </c>
+      <c r="G64" s="20">
+        <v>3</v>
+      </c>
+      <c r="H64" s="20">
+        <v>2</v>
+      </c>
+      <c r="I64" s="20"/>
+      <c r="J64" s="20"/>
+      <c r="K64" s="20"/>
+      <c r="L64" s="20"/>
+      <c r="M64" s="20"/>
+      <c r="N64" s="20"/>
+      <c r="O64" s="20"/>
+      <c r="P64" s="20"/>
+      <c r="Q64" s="20"/>
+      <c r="R64" s="27"/>
+      <c r="S64" s="29"/>
+      <c r="T64" s="28"/>
+      <c r="U64" s="28"/>
+      <c r="V64" s="28"/>
+      <c r="W64" s="28"/>
+      <c r="X64" s="28"/>
+      <c r="Y64" s="25"/>
+    </row>
+    <row r="65" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A65" s="42"/>
+      <c r="B65" s="19">
+        <v>64</v>
+      </c>
+      <c r="C65" s="20">
+        <v>2</v>
+      </c>
+      <c r="D65" s="20">
+        <v>3</v>
+      </c>
+      <c r="E65" s="20">
+        <v>4</v>
+      </c>
+      <c r="F65" s="20">
+        <v>5</v>
+      </c>
+      <c r="G65" s="20"/>
+      <c r="H65" s="20"/>
+      <c r="I65" s="20"/>
+      <c r="J65" s="20"/>
+      <c r="K65" s="20"/>
+      <c r="L65" s="20"/>
+      <c r="M65" s="20"/>
+      <c r="N65" s="20"/>
+      <c r="O65" s="20"/>
+      <c r="P65" s="20"/>
+      <c r="Q65" s="20"/>
+      <c r="R65" s="27"/>
+      <c r="S65" s="29"/>
+      <c r="T65" s="28"/>
+      <c r="U65" s="28"/>
+      <c r="V65" s="28"/>
+      <c r="W65" s="28"/>
+      <c r="X65" s="28"/>
+      <c r="Y65" s="25"/>
+    </row>
+    <row r="66" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A66" s="42"/>
+      <c r="B66" s="19">
+        <v>65</v>
+      </c>
+      <c r="C66" s="20">
+        <v>5</v>
+      </c>
+      <c r="D66" s="20">
+        <v>4</v>
+      </c>
+      <c r="E66" s="20">
+        <v>3</v>
+      </c>
+      <c r="F66" s="20"/>
+      <c r="G66" s="20"/>
+      <c r="H66" s="20"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="20"/>
+      <c r="K66" s="20"/>
+      <c r="L66" s="20"/>
+      <c r="M66" s="20"/>
+      <c r="N66" s="20"/>
+      <c r="O66" s="20"/>
+      <c r="P66" s="20"/>
+      <c r="Q66" s="20"/>
+      <c r="R66" s="27"/>
+      <c r="S66" s="29"/>
+      <c r="T66" s="28"/>
+      <c r="U66" s="28"/>
+      <c r="V66" s="28"/>
+      <c r="W66" s="28"/>
+      <c r="X66" s="28"/>
+      <c r="Y66" s="25"/>
+    </row>
+    <row r="67" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A67" s="42"/>
+      <c r="B67" s="19">
+        <v>66</v>
+      </c>
+      <c r="C67" s="20">
+        <v>1</v>
+      </c>
+      <c r="D67" s="20">
+        <v>2</v>
+      </c>
+      <c r="E67" s="20">
+        <v>3</v>
+      </c>
+      <c r="F67" s="20">
+        <v>4</v>
+      </c>
+      <c r="G67" s="20">
+        <v>5</v>
+      </c>
+      <c r="H67" s="20"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="20"/>
+      <c r="K67" s="20"/>
+      <c r="L67" s="20"/>
+      <c r="M67" s="20"/>
+      <c r="N67" s="20"/>
+      <c r="O67" s="20"/>
+      <c r="P67" s="20"/>
+      <c r="Q67" s="20"/>
+      <c r="R67" s="27"/>
+      <c r="S67" s="29"/>
+      <c r="T67" s="28"/>
+      <c r="U67" s="28"/>
+      <c r="V67" s="28"/>
+      <c r="W67" s="28"/>
+      <c r="X67" s="28"/>
+      <c r="Y67" s="25"/>
+    </row>
+    <row r="68" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A68" s="42"/>
+      <c r="B68" s="19">
+        <v>67</v>
+      </c>
+      <c r="C68" s="20">
+        <v>1</v>
+      </c>
+      <c r="D68" s="20">
+        <v>2</v>
+      </c>
+      <c r="E68" s="20">
+        <v>3</v>
+      </c>
+      <c r="F68" s="20">
+        <v>4</v>
+      </c>
+      <c r="G68" s="20"/>
+      <c r="H68" s="20"/>
+      <c r="I68" s="20"/>
+      <c r="J68" s="20"/>
+      <c r="K68" s="20"/>
+      <c r="L68" s="20"/>
+      <c r="M68" s="20"/>
+      <c r="N68" s="20"/>
+      <c r="O68" s="20"/>
+      <c r="P68" s="20"/>
+      <c r="Q68" s="20"/>
+      <c r="R68" s="27"/>
+      <c r="S68" s="29"/>
+      <c r="T68" s="28"/>
+      <c r="U68" s="28"/>
+      <c r="V68" s="28"/>
+      <c r="W68" s="28"/>
+      <c r="X68" s="28"/>
+      <c r="Y68" s="25"/>
+    </row>
+    <row r="69" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A69" s="42"/>
+      <c r="B69" s="19">
+        <v>68</v>
+      </c>
+      <c r="C69" s="20">
+        <v>2</v>
+      </c>
+      <c r="D69" s="20">
+        <v>3</v>
+      </c>
+      <c r="E69" s="20"/>
+      <c r="F69" s="20"/>
+      <c r="G69" s="20"/>
+      <c r="H69" s="20"/>
+      <c r="I69" s="20"/>
+      <c r="J69" s="20"/>
+      <c r="K69" s="20"/>
+      <c r="L69" s="20"/>
+      <c r="M69" s="20"/>
+      <c r="N69" s="20"/>
+      <c r="O69" s="20"/>
+      <c r="P69" s="20"/>
+      <c r="Q69" s="20"/>
+      <c r="R69" s="27"/>
+      <c r="S69" s="29"/>
+      <c r="T69" s="28"/>
+      <c r="U69" s="28"/>
+      <c r="V69" s="28"/>
+      <c r="W69" s="28"/>
+      <c r="X69" s="28"/>
+      <c r="Y69" s="25"/>
+    </row>
+    <row r="70" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A70" s="42"/>
+      <c r="B70" s="19">
+        <v>69</v>
+      </c>
+      <c r="C70" s="20">
+        <v>1</v>
+      </c>
+      <c r="D70" s="20">
+        <v>2</v>
+      </c>
+      <c r="E70" s="20"/>
+      <c r="F70" s="20"/>
+      <c r="G70" s="20"/>
+      <c r="H70" s="20"/>
+      <c r="I70" s="20"/>
+      <c r="J70" s="20"/>
+      <c r="K70" s="20"/>
+      <c r="L70" s="20"/>
+      <c r="M70" s="20"/>
+      <c r="N70" s="20"/>
+      <c r="O70" s="20"/>
+      <c r="P70" s="20"/>
+      <c r="Q70" s="20"/>
+      <c r="R70" s="27"/>
+      <c r="S70" s="29"/>
+      <c r="T70" s="28"/>
+      <c r="U70" s="28"/>
+      <c r="V70" s="28"/>
+      <c r="W70" s="28"/>
+      <c r="X70" s="28"/>
+      <c r="Y70" s="25"/>
+    </row>
+    <row r="71" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A71" s="42"/>
+      <c r="B71" s="19">
+        <v>70</v>
+      </c>
+      <c r="C71" s="20">
+        <v>1</v>
+      </c>
+      <c r="D71" s="20">
+        <v>2</v>
+      </c>
+      <c r="E71" s="20">
+        <v>3</v>
+      </c>
+      <c r="F71" s="20"/>
+      <c r="G71" s="20"/>
+      <c r="H71" s="20"/>
+      <c r="I71" s="20"/>
+      <c r="J71" s="20"/>
+      <c r="K71" s="20"/>
+      <c r="L71" s="20"/>
+      <c r="M71" s="20"/>
+      <c r="N71" s="20"/>
+      <c r="O71" s="20"/>
+      <c r="P71" s="20"/>
+      <c r="Q71" s="20"/>
+      <c r="R71" s="27"/>
+      <c r="S71" s="29"/>
+      <c r="T71" s="28"/>
+      <c r="U71" s="28"/>
+      <c r="V71" s="28"/>
+      <c r="W71" s="28"/>
+      <c r="X71" s="28"/>
+      <c r="Y71" s="25"/>
+    </row>
+    <row r="72" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A72" s="42"/>
+      <c r="B72" s="19">
+        <v>71</v>
+      </c>
+      <c r="C72" s="20">
+        <v>3</v>
+      </c>
+      <c r="D72" s="20">
+        <v>4</v>
+      </c>
+      <c r="E72" s="20">
+        <v>5</v>
+      </c>
+      <c r="F72" s="20"/>
+      <c r="G72" s="20"/>
+      <c r="H72" s="20"/>
+      <c r="I72" s="20"/>
+      <c r="J72" s="20"/>
+      <c r="K72" s="20"/>
+      <c r="L72" s="20"/>
+      <c r="M72" s="20"/>
+      <c r="N72" s="20"/>
+      <c r="O72" s="20"/>
+      <c r="P72" s="20"/>
+      <c r="Q72" s="20"/>
+      <c r="R72" s="27"/>
+      <c r="S72" s="29"/>
+      <c r="T72" s="28"/>
+      <c r="U72" s="28"/>
+      <c r="V72" s="28"/>
+      <c r="W72" s="28"/>
+      <c r="X72" s="28"/>
+      <c r="Y72" s="25"/>
+    </row>
+    <row r="73" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A73" s="42"/>
+      <c r="B73" s="19">
+        <v>72</v>
+      </c>
+      <c r="C73" s="20">
+        <v>5</v>
+      </c>
+      <c r="D73" s="20">
+        <v>4</v>
+      </c>
+      <c r="E73" s="20">
+        <v>3</v>
+      </c>
+      <c r="F73" s="20"/>
+      <c r="G73" s="20"/>
+      <c r="H73" s="20"/>
+      <c r="I73" s="20"/>
+      <c r="J73" s="20"/>
+      <c r="K73" s="20"/>
+      <c r="L73" s="20"/>
+      <c r="M73" s="20"/>
+      <c r="N73" s="20"/>
+      <c r="O73" s="20"/>
+      <c r="P73" s="20"/>
+      <c r="Q73" s="20"/>
+      <c r="R73" s="27"/>
+      <c r="S73" s="29"/>
+      <c r="T73" s="28"/>
+      <c r="U73" s="28"/>
+      <c r="V73" s="28"/>
+      <c r="W73" s="28"/>
+      <c r="X73" s="28"/>
+      <c r="Y73" s="25"/>
+    </row>
+    <row r="74" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A74" s="42"/>
+      <c r="B74" s="19">
+        <v>73</v>
+      </c>
+      <c r="C74" s="20">
+        <v>2</v>
+      </c>
+      <c r="D74" s="20">
+        <v>3</v>
+      </c>
+      <c r="E74" s="20">
+        <v>2</v>
+      </c>
+      <c r="F74" s="20">
+        <v>3</v>
+      </c>
+      <c r="G74" s="20">
+        <v>2</v>
+      </c>
+      <c r="H74" s="20"/>
+      <c r="I74" s="20"/>
+      <c r="J74" s="20"/>
+      <c r="K74" s="20"/>
+      <c r="L74" s="20"/>
+      <c r="M74" s="20"/>
+      <c r="N74" s="20"/>
+      <c r="O74" s="20"/>
+      <c r="P74" s="20"/>
+      <c r="Q74" s="20"/>
+      <c r="R74" s="27"/>
+      <c r="S74" s="29"/>
+      <c r="T74" s="28"/>
+      <c r="U74" s="28"/>
+      <c r="V74" s="28"/>
+      <c r="W74" s="28"/>
+      <c r="X74" s="28"/>
+      <c r="Y74" s="25"/>
+    </row>
+    <row r="75" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A75" s="42"/>
+      <c r="B75" s="19">
+        <v>74</v>
+      </c>
+      <c r="C75" s="20">
+        <v>1</v>
+      </c>
+      <c r="D75" s="20">
+        <v>2</v>
+      </c>
+      <c r="E75" s="20"/>
+      <c r="F75" s="20"/>
+      <c r="G75" s="20"/>
+      <c r="H75" s="20"/>
+      <c r="I75" s="20"/>
+      <c r="J75" s="20"/>
+      <c r="K75" s="20"/>
+      <c r="L75" s="20"/>
+      <c r="M75" s="20"/>
+      <c r="N75" s="20"/>
+      <c r="O75" s="20"/>
+      <c r="P75" s="20"/>
+      <c r="Q75" s="20"/>
+      <c r="R75" s="27"/>
+      <c r="S75" s="29"/>
+      <c r="T75" s="28"/>
+      <c r="U75" s="28"/>
+      <c r="V75" s="28"/>
+      <c r="W75" s="28"/>
+      <c r="X75" s="28"/>
+      <c r="Y75" s="25"/>
+    </row>
+    <row r="76" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A76" s="42"/>
+      <c r="B76" s="19">
+        <v>75</v>
+      </c>
+      <c r="C76" s="20">
+        <v>3</v>
+      </c>
+      <c r="D76" s="20">
+        <v>4</v>
+      </c>
+      <c r="E76" s="20">
+        <v>3</v>
+      </c>
+      <c r="F76" s="20">
+        <v>4</v>
+      </c>
+      <c r="G76" s="20">
+        <v>3</v>
+      </c>
+      <c r="H76" s="20"/>
+      <c r="I76" s="20"/>
+      <c r="J76" s="20"/>
+      <c r="K76" s="20"/>
+      <c r="L76" s="20"/>
+      <c r="M76" s="20"/>
+      <c r="N76" s="20"/>
+      <c r="O76" s="20"/>
+      <c r="P76" s="20"/>
+      <c r="Q76" s="20"/>
+      <c r="R76" s="27"/>
+      <c r="S76" s="29"/>
+      <c r="T76" s="28"/>
+      <c r="U76" s="28"/>
+      <c r="V76" s="28"/>
+      <c r="W76" s="28"/>
+      <c r="X76" s="28"/>
+      <c r="Y76" s="25"/>
+    </row>
+    <row r="77" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A77" s="42"/>
+      <c r="B77" s="19">
+        <v>76</v>
+      </c>
+      <c r="C77" s="20">
+        <v>4</v>
+      </c>
+      <c r="D77" s="20">
+        <v>5</v>
+      </c>
+      <c r="E77" s="20">
+        <v>4</v>
+      </c>
+      <c r="F77" s="20">
+        <v>5</v>
+      </c>
+      <c r="G77" s="20">
+        <v>4</v>
+      </c>
+      <c r="H77" s="20"/>
+      <c r="I77" s="20"/>
+      <c r="J77" s="20"/>
+      <c r="K77" s="20"/>
+      <c r="L77" s="20"/>
+      <c r="M77" s="20"/>
+      <c r="N77" s="20"/>
+      <c r="O77" s="20"/>
+      <c r="P77" s="20"/>
+      <c r="Q77" s="20"/>
+      <c r="R77" s="27"/>
+      <c r="S77" s="29"/>
+      <c r="T77" s="28"/>
+      <c r="U77" s="28"/>
+      <c r="V77" s="28"/>
+      <c r="W77" s="28"/>
+      <c r="X77" s="28"/>
+      <c r="Y77" s="25"/>
+    </row>
+    <row r="78" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A78" s="42"/>
+      <c r="B78" s="19">
+        <v>77</v>
+      </c>
+      <c r="C78" s="20">
+        <v>3</v>
+      </c>
+      <c r="D78" s="20">
+        <v>4</v>
+      </c>
+      <c r="E78" s="20">
+        <v>3</v>
+      </c>
+      <c r="F78" s="20"/>
+      <c r="G78" s="20"/>
+      <c r="H78" s="20"/>
+      <c r="I78" s="20"/>
+      <c r="J78" s="20"/>
+      <c r="K78" s="20"/>
+      <c r="L78" s="20"/>
+      <c r="M78" s="20"/>
+      <c r="N78" s="20"/>
+      <c r="O78" s="20"/>
+      <c r="P78" s="20"/>
+      <c r="Q78" s="20"/>
+      <c r="R78" s="27"/>
+      <c r="S78" s="29"/>
+      <c r="T78" s="28"/>
+      <c r="U78" s="28"/>
+      <c r="V78" s="28"/>
+      <c r="W78" s="28"/>
+      <c r="X78" s="28"/>
+      <c r="Y78" s="25"/>
+    </row>
+    <row r="79" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A79" s="42"/>
+      <c r="B79" s="19">
+        <v>78</v>
+      </c>
+      <c r="C79" s="20">
+        <v>1</v>
+      </c>
+      <c r="D79" s="20">
+        <v>2</v>
+      </c>
+      <c r="E79" s="20">
+        <v>1</v>
+      </c>
+      <c r="F79" s="20">
+        <v>2</v>
+      </c>
+      <c r="G79" s="20">
+        <v>1</v>
+      </c>
+      <c r="H79" s="20">
+        <v>2</v>
+      </c>
+      <c r="I79" s="20"/>
+      <c r="J79" s="20"/>
+      <c r="K79" s="20"/>
+      <c r="L79" s="20"/>
+      <c r="M79" s="20"/>
+      <c r="N79" s="20"/>
+      <c r="O79" s="20"/>
+      <c r="P79" s="20"/>
+      <c r="Q79" s="20"/>
+      <c r="R79" s="27"/>
+      <c r="S79" s="29"/>
+      <c r="T79" s="28"/>
+      <c r="U79" s="28"/>
+      <c r="V79" s="28"/>
+      <c r="W79" s="28"/>
+      <c r="X79" s="28"/>
+      <c r="Y79" s="25"/>
+    </row>
+    <row r="80" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A80" s="42"/>
+      <c r="B80" s="19">
+        <v>79</v>
+      </c>
+      <c r="C80" s="20">
+        <v>5</v>
+      </c>
+      <c r="D80" s="20">
+        <v>4</v>
+      </c>
+      <c r="E80" s="20">
+        <v>3</v>
+      </c>
+      <c r="F80" s="20">
+        <v>2</v>
+      </c>
+      <c r="G80" s="20">
+        <v>1</v>
+      </c>
+      <c r="H80" s="20"/>
+      <c r="I80" s="20"/>
+      <c r="J80" s="20"/>
+      <c r="K80" s="20"/>
+      <c r="L80" s="20"/>
+      <c r="M80" s="20"/>
+      <c r="N80" s="20"/>
+      <c r="O80" s="20"/>
+      <c r="P80" s="20"/>
+      <c r="Q80" s="20"/>
+      <c r="R80" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C1:R1"/>
+    <mergeCell ref="A36:A80"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="A13:A33"/>
+    <mergeCell ref="A34:A35"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>